--- a/Recipe_Master.xlsx
+++ b/Recipe_Master.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dufrain-my.sharepoint.com/personal/mdixon_dufrain_co_uk/Documents/Documents/Python Scripts/ShoppingList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="11_AD4DB114E441178AC67DF4E56ED0EB68693EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C64AB67D-2E98-4A5D-9457-0D0E1E44ADC3}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="11_AD4DB114E441178AC67DF4E56ED0EB68693EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBBE2B78-131F-4F73-9052-E78E447B6F7C}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="1410" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipes" sheetId="1" r:id="rId1"/>
+    <sheet name="FG_LookUp" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
   <si>
     <t>Meal_Name</t>
   </si>
@@ -135,6 +136,24 @@
   </si>
   <si>
     <t>White Onion</t>
+  </si>
+  <si>
+    <t>Fish and Veg</t>
+  </si>
+  <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>Potato</t>
+  </si>
+  <si>
+    <t>Broccoli</t>
+  </si>
+  <si>
+    <t>Asparagus</t>
+  </si>
+  <si>
+    <t>Fish</t>
   </si>
 </sst>
 </file>
@@ -458,10 +477,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,8 +526,9 @@
       <c r="E2" s="2">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
+      <c r="F2" s="2" t="str">
+        <f>VLOOKUP(C2,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Bread</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -526,8 +547,9 @@
       <c r="E3" s="2">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
+      <c r="F3" s="2" t="str">
+        <f>VLOOKUP(C3,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Meat</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -546,8 +568,9 @@
       <c r="E4" s="2">
         <v>8</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
+      <c r="F4" s="2" t="str">
+        <f>VLOOKUP(C4,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -566,8 +589,9 @@
       <c r="E5" s="2">
         <v>8</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
+      <c r="F5" s="2" t="str">
+        <f>VLOOKUP(C5,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -586,8 +610,9 @@
       <c r="E6" s="2">
         <v>8</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
+      <c r="F6" s="2" t="str">
+        <f>VLOOKUP(C6,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -606,8 +631,9 @@
       <c r="E7" s="2">
         <v>8</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>24</v>
+      <c r="F7" s="2" t="str">
+        <f>VLOOKUP(C7,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -626,8 +652,9 @@
       <c r="E8" s="2">
         <v>8</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
+      <c r="F8" s="2" t="str">
+        <f>VLOOKUP(C8,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Jar</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -646,8 +673,9 @@
       <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>25</v>
+      <c r="F9" s="2" t="str">
+        <f>VLOOKUP(C9,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Pasta</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -666,8 +694,9 @@
       <c r="E10" s="2">
         <v>2</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>26</v>
+      <c r="F10" s="2" t="str">
+        <f>VLOOKUP(C10,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -686,8 +715,9 @@
       <c r="E11" s="2">
         <v>2</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>22</v>
+      <c r="F11" s="2" t="str">
+        <f>VLOOKUP(C11,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Meat</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -706,8 +736,9 @@
       <c r="E12" s="2">
         <v>2</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>26</v>
+      <c r="F12" s="2" t="str">
+        <f>VLOOKUP(C12,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -726,8 +757,9 @@
       <c r="E13" s="2">
         <v>2</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>24</v>
+      <c r="F13" s="2" t="str">
+        <f>VLOOKUP(C13,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -746,8 +778,9 @@
       <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>27</v>
+      <c r="F14" s="2" t="str">
+        <f>VLOOKUP(C14,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Ready Meal</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -766,8 +799,9 @@
       <c r="E15" s="2">
         <v>2</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>25</v>
+      <c r="F15" s="2" t="str">
+        <f>VLOOKUP(C15,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Pasta</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -786,8 +820,9 @@
       <c r="E16" s="2">
         <v>2</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>28</v>
+      <c r="F16" s="2" t="str">
+        <f>VLOOKUP(C16,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Jar</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -806,8 +841,9 @@
       <c r="E17" s="2">
         <v>2</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>22</v>
+      <c r="F17" s="2" t="str">
+        <f>VLOOKUP(C17,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Meat</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -826,21 +862,281 @@
       <c r="E18" s="2">
         <v>2</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="2" t="str">
+        <f>VLOOKUP(C18,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f>VLOOKUP(C19,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Fish</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2" t="str">
+        <f>VLOOKUP(C20,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2" t="str">
+        <f>VLOOKUP(C21,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2" t="str">
+        <f>VLOOKUP(C22,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39DC5D3-48DD-4434-AD5F-B09C98CDDF7C}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B19:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Recipe_Master.xlsx
+++ b/Recipe_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dufrain-my.sharepoint.com/personal/mdixon_dufrain_co_uk/Documents/Documents/Python Scripts/ShoppingList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="11_AD4DB114E441178AC67DF4E56ED0EB68693EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBBE2B78-131F-4F73-9052-E78E447B6F7C}"/>
+  <xr:revisionPtr revIDLastSave="546" documentId="11_AD4DB114E441178AC67DF4E56ED0EB68693EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AF1C105-BF62-4639-AD1E-CDC5FF6C1E6A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="106">
   <si>
     <t>Meal_Name</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Spaghetti</t>
   </si>
   <si>
-    <t>Parmesan Cheese</t>
-  </si>
-  <si>
     <t>Lardons</t>
   </si>
   <si>
@@ -154,19 +151,236 @@
   </si>
   <si>
     <t>Fish</t>
+  </si>
+  <si>
+    <t>Chorizo Soup</t>
+  </si>
+  <si>
+    <t>Chorizo</t>
+  </si>
+  <si>
+    <t>Carrot</t>
+  </si>
+  <si>
+    <t>Celery</t>
+  </si>
+  <si>
+    <t>Pearl Barley</t>
+  </si>
+  <si>
+    <t>Kale</t>
+  </si>
+  <si>
+    <t>Tinned Plum Tomatoes</t>
+  </si>
+  <si>
+    <t>Chicken Stock Pot</t>
+  </si>
+  <si>
+    <t>Burgers</t>
+  </si>
+  <si>
+    <t>Brioche Bun</t>
+  </si>
+  <si>
+    <t>Streaky Bacon</t>
+  </si>
+  <si>
+    <t>Cheese Slices</t>
+  </si>
+  <si>
+    <t>Paprika Cod</t>
+  </si>
+  <si>
+    <t>Cod</t>
+  </si>
+  <si>
+    <t>Shallots</t>
+  </si>
+  <si>
+    <t>Frozen Peas</t>
+  </si>
+  <si>
+    <t>Grains</t>
+  </si>
+  <si>
+    <t>Yoghurt</t>
+  </si>
+  <si>
+    <t>Frozen</t>
+  </si>
+  <si>
+    <t>Paprika</t>
+  </si>
+  <si>
+    <t>Tuna Onigiri</t>
+  </si>
+  <si>
+    <t>Sushi Rice</t>
+  </si>
+  <si>
+    <t>Tinned Tuna</t>
+  </si>
+  <si>
+    <t>Soy Sauce</t>
+  </si>
+  <si>
+    <t>Hoisin Sauce</t>
+  </si>
+  <si>
+    <t>Tuna Bruschetta</t>
+  </si>
+  <si>
+    <t>Sourdough</t>
+  </si>
+  <si>
+    <t>Tuna Steak</t>
+  </si>
+  <si>
+    <t>Rocket</t>
+  </si>
+  <si>
+    <t>Avocado</t>
+  </si>
+  <si>
+    <t>Chives</t>
+  </si>
+  <si>
+    <t>Bacon Wrapped Salmon Bites</t>
+  </si>
+  <si>
+    <t>Chillies</t>
+  </si>
+  <si>
+    <t>Honey</t>
+  </si>
+  <si>
+    <t>Brown Sugar</t>
+  </si>
+  <si>
+    <t>Sriracha</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Chicken Parmo</t>
+  </si>
+  <si>
+    <t>Breadcrumbs</t>
+  </si>
+  <si>
+    <t>Mozzarella</t>
+  </si>
+  <si>
+    <t>Parmesan</t>
+  </si>
+  <si>
+    <t>French Onion Soup</t>
+  </si>
+  <si>
+    <t>Gruyere</t>
+  </si>
+  <si>
+    <t>Beef Broth</t>
+  </si>
+  <si>
+    <t>Red Onion</t>
+  </si>
+  <si>
+    <t>Chicken Fried Rice</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Poke Bowl</t>
+  </si>
+  <si>
+    <t>Mirin</t>
+  </si>
+  <si>
+    <t>Vinegar</t>
+  </si>
+  <si>
+    <t>Crispy Onions</t>
+  </si>
+  <si>
+    <t>Edamame</t>
+  </si>
+  <si>
+    <t>Paneer Curry</t>
+  </si>
+  <si>
+    <t>Paneer</t>
+  </si>
+  <si>
+    <t>Ginger</t>
+  </si>
+  <si>
+    <t>Korma Paste</t>
+  </si>
+  <si>
+    <t>Cardamom Pod</t>
+  </si>
+  <si>
+    <t>Veg Stock Cube</t>
+  </si>
+  <si>
+    <t>Spinach</t>
+  </si>
+  <si>
+    <t>Greek Yoghurt</t>
+  </si>
+  <si>
+    <t>Chicken Pasta Bake</t>
+  </si>
+  <si>
+    <t>Fusilli</t>
+  </si>
+  <si>
+    <t>Pasta Bake Sauce</t>
+  </si>
+  <si>
+    <t>Red Pepper</t>
+  </si>
+  <si>
+    <t>Cheddar</t>
+  </si>
+  <si>
+    <t>Garlic Parmesan Chicken Skewers</t>
+  </si>
+  <si>
+    <t>Butter</t>
+  </si>
+  <si>
+    <t>Parsley</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -189,13 +403,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,40 +695,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19:C22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="26.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -523,15 +746,15 @@
       <c r="D2" s="1">
         <v>8</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="3" t="str">
         <f>VLOOKUP(C2,FG_LookUp!$A$2:$B$1048576,2,0)</f>
         <v>Bread</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -544,15 +767,15 @@
       <c r="D3" s="1">
         <v>4</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="3" t="str">
         <f>VLOOKUP(C3,FG_LookUp!$A$2:$B$1048576,2,0)</f>
         <v>Meat</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -565,15 +788,15 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>8</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="3" t="str">
         <f>VLOOKUP(C4,FG_LookUp!$A$2:$B$1048576,2,0)</f>
         <v>Veg</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -586,15 +809,15 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>8</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="3" t="str">
         <f>VLOOKUP(C5,FG_LookUp!$A$2:$B$1048576,2,0)</f>
         <v>Veg</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -607,15 +830,15 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>8</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="3" t="str">
         <f>VLOOKUP(C6,FG_LookUp!$A$2:$B$1048576,2,0)</f>
         <v>Veg</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -623,20 +846,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1">
         <v>0.5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>8</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="3" t="str">
         <f>VLOOKUP(C7,FG_LookUp!$A$2:$B$1048576,2,0)</f>
         <v>Condiment</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -644,20 +867,20 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1">
         <v>0.8</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>8</v>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="F8" s="3" t="str">
         <f>VLOOKUP(C8,FG_LookUp!$A$2:$B$1048576,2,0)</f>
         <v>Jar</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -670,15 +893,15 @@
       <c r="D9" s="1">
         <v>0.4</v>
       </c>
-      <c r="E9" s="2">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2" t="str">
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="str">
         <f>VLOOKUP(C9,FG_LookUp!$A$2:$B$1048576,2,0)</f>
         <v>Pasta</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -686,20 +909,20 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1">
         <v>0.5</v>
       </c>
-      <c r="E10" s="2">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2" t="str">
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3" t="str">
         <f>VLOOKUP(C10,FG_LookUp!$A$2:$B$1048576,2,0)</f>
         <v>Dairy</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -707,20 +930,20 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="2">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2" t="str">
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3" t="str">
         <f>VLOOKUP(C11,FG_LookUp!$A$2:$B$1048576,2,0)</f>
         <v>Meat</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -728,20 +951,20 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="E12" s="2">
-        <v>2</v>
-      </c>
-      <c r="F12" s="2" t="str">
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3" t="str">
         <f>VLOOKUP(C12,FG_LookUp!$A$2:$B$1048576,2,0)</f>
         <v>Dairy</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -749,46 +972,46 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1">
         <v>0.4</v>
       </c>
-      <c r="E13" s="2">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2" t="str">
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3" t="str">
         <f>VLOOKUP(C13,FG_LookUp!$A$2:$B$1048576,2,0)</f>
         <v>Condiment</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="str">
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="str">
         <f>VLOOKUP(C14,FG_LookUp!$A$2:$B$1048576,2,0)</f>
         <v>Ready Meal</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
@@ -796,160 +1019,2117 @@
       <c r="D15" s="1">
         <v>0.4</v>
       </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2" t="str">
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3" t="str">
         <f>VLOOKUP(C15,FG_LookUp!$A$2:$B$1048576,2,0)</f>
         <v>Pasta</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="2">
-        <v>2</v>
-      </c>
-      <c r="F16" s="2" t="str">
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3" t="str">
         <f>VLOOKUP(C16,FG_LookUp!$A$2:$B$1048576,2,0)</f>
         <v>Jar</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1">
         <v>250</v>
       </c>
-      <c r="E17" s="2">
-        <v>2</v>
-      </c>
-      <c r="F17" s="2" t="str">
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3" t="str">
         <f>VLOOKUP(C17,FG_LookUp!$A$2:$B$1048576,2,0)</f>
         <v>Meat</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="2">
-        <v>2</v>
-      </c>
-      <c r="F18" s="2" t="str">
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3" t="str">
         <f>VLOOKUP(C18,FG_LookUp!$A$2:$B$1048576,2,0)</f>
         <v>Veg</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D19" s="1">
         <v>2</v>
       </c>
-      <c r="E19" s="2">
-        <v>2</v>
-      </c>
-      <c r="F19" s="2" t="str">
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3" t="str">
         <f>VLOOKUP(C19,FG_LookUp!$A$2:$B$1048576,2,0)</f>
         <v>Fish</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
-        <v>2</v>
-      </c>
-      <c r="F20" s="2" t="str">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3" t="str">
         <f>VLOOKUP(C20,FG_LookUp!$A$2:$B$1048576,2,0)</f>
         <v>Veg</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="2">
-        <v>2</v>
-      </c>
-      <c r="F21" s="2" t="str">
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3" t="str">
         <f>VLOOKUP(C21,FG_LookUp!$A$2:$B$1048576,2,0)</f>
         <v>Veg</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="2">
-        <v>2</v>
-      </c>
-      <c r="F22" s="2" t="str">
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3" t="str">
         <f>VLOOKUP(C22,FG_LookUp!$A$2:$B$1048576,2,0)</f>
         <v>Veg</v>
       </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>6</v>
+      </c>
+      <c r="F23" s="3" t="str">
+        <f>VLOOKUP(C23,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>6</v>
+      </c>
+      <c r="F24" s="3" t="str">
+        <f>VLOOKUP(C24,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>6</v>
+      </c>
+      <c r="F25" s="3" t="str">
+        <f>VLOOKUP(C25,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>6</v>
+      </c>
+      <c r="F26" s="3" t="str">
+        <f>VLOOKUP(C26,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="1">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6</v>
+      </c>
+      <c r="F27" s="3" t="str">
+        <f>VLOOKUP(C27,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Pasta</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>6</v>
+      </c>
+      <c r="F28" s="3" t="str">
+        <f>VLOOKUP(C28,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>6</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3">
+        <v>6</v>
+      </c>
+      <c r="F29" s="3" t="str">
+        <f>VLOOKUP(C29,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Jar</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>6</v>
+      </c>
+      <c r="F30" s="3" t="str">
+        <f>VLOOKUP(C30,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1">
+        <v>500</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2</v>
+      </c>
+      <c r="F31" s="3" t="str">
+        <f>VLOOKUP(C31,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>7</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2</v>
+      </c>
+      <c r="F32" s="3" t="str">
+        <f>VLOOKUP(C32,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Bread</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>7</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2</v>
+      </c>
+      <c r="F33" s="3" t="str">
+        <f>VLOOKUP(C33,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>7</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2</v>
+      </c>
+      <c r="F34" s="3" t="str">
+        <f>VLOOKUP(C34,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>8</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2</v>
+      </c>
+      <c r="F35" s="3" t="str">
+        <f>VLOOKUP(C35,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Fish</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>8</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3" t="str">
+        <f>VLOOKUP(C36,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>8</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2</v>
+      </c>
+      <c r="F37" s="3" t="str">
+        <f>VLOOKUP(C37,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Frozen</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2</v>
+      </c>
+      <c r="F38" s="3" t="str">
+        <f>VLOOKUP(C38,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2</v>
+      </c>
+      <c r="F39" s="3" t="str">
+        <f>VLOOKUP(C39,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Pasta</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>8</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2</v>
+      </c>
+      <c r="F40" s="3" t="str">
+        <f>VLOOKUP(C40,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>8</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2</v>
+      </c>
+      <c r="F41" s="3" t="str">
+        <f>VLOOKUP(C41,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>9</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2</v>
+      </c>
+      <c r="F42" s="3" t="str">
+        <f>VLOOKUP(C42,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Pasta</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>9</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2</v>
+      </c>
+      <c r="F43" s="3" t="str">
+        <f>VLOOKUP(C43,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Jar</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>9</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2</v>
+      </c>
+      <c r="F44" s="3" t="str">
+        <f>VLOOKUP(C44,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <v>9</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2</v>
+      </c>
+      <c r="F45" s="3" t="str">
+        <f>VLOOKUP(C45,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>10</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2</v>
+      </c>
+      <c r="F46" s="3" t="str">
+        <f>VLOOKUP(C46,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Bread</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>10</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2</v>
+      </c>
+      <c r="F47" s="3" t="str">
+        <f>VLOOKUP(C47,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Fish</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
+        <v>10</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2</v>
+      </c>
+      <c r="F48" s="3" t="str">
+        <f>VLOOKUP(C48,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>10</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2</v>
+      </c>
+      <c r="F49" s="3" t="str">
+        <f>VLOOKUP(C49,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>10</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="3">
+        <v>2</v>
+      </c>
+      <c r="F50" s="3" t="str">
+        <f>VLOOKUP(C50,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>10</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3">
+        <v>2</v>
+      </c>
+      <c r="F51" s="3" t="str">
+        <f>VLOOKUP(C51,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>11</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2</v>
+      </c>
+      <c r="F52" s="3" t="str">
+        <f>VLOOKUP(C52,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Fish</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
+        <v>11</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E53" s="3">
+        <v>2</v>
+      </c>
+      <c r="F53" s="3" t="str">
+        <f>VLOOKUP(C53,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>11</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2</v>
+      </c>
+      <c r="F54" s="3" t="str">
+        <f>VLOOKUP(C54,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="1">
+        <v>11</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="3">
+        <v>2</v>
+      </c>
+      <c r="F55" s="3" t="str">
+        <f>VLOOKUP(C55,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
+        <v>11</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E56" s="3">
+        <v>2</v>
+      </c>
+      <c r="F56" s="3" t="str">
+        <f>VLOOKUP(C56,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
+        <v>11</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2</v>
+      </c>
+      <c r="F57" s="3" t="str">
+        <f>VLOOKUP(C57,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="1">
+        <v>11</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2</v>
+      </c>
+      <c r="F58" s="3" t="str">
+        <f>VLOOKUP(C58,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="1">
+        <v>11</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2</v>
+      </c>
+      <c r="F59" s="3" t="str">
+        <f>VLOOKUP(C59,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="1">
+        <v>12</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2</v>
+      </c>
+      <c r="F60" s="3" t="str">
+        <f>VLOOKUP(C60,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="1">
+        <v>12</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2</v>
+      </c>
+      <c r="F61" s="3" t="str">
+        <f>VLOOKUP(C61,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Jar</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
+        <v>12</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2</v>
+      </c>
+      <c r="F62" s="3" t="str">
+        <f>VLOOKUP(C62,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="1">
+        <v>12</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E63" s="3">
+        <v>2</v>
+      </c>
+      <c r="F63" s="3" t="str">
+        <f>VLOOKUP(C63,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
+        <v>12</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E64" s="3">
+        <v>2</v>
+      </c>
+      <c r="F64" s="3" t="str">
+        <f>VLOOKUP(C64,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="1">
+        <v>12</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E65" s="3">
+        <v>2</v>
+      </c>
+      <c r="F65" s="3" t="str">
+        <f>VLOOKUP(C65,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="1">
+        <v>13</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2</v>
+      </c>
+      <c r="F66" s="3" t="str">
+        <f>VLOOKUP(C66,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="1">
+        <v>13</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+      <c r="E67" s="3">
+        <v>2</v>
+      </c>
+      <c r="F67" s="3" t="str">
+        <f>VLOOKUP(C67,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <v>13</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68" s="3">
+        <v>2</v>
+      </c>
+      <c r="F68" s="3" t="str">
+        <f>VLOOKUP(C68,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <v>13</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="E69" s="3">
+        <v>2</v>
+      </c>
+      <c r="F69" s="3" t="str">
+        <f>VLOOKUP(C69,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <v>13</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E70" s="3">
+        <v>2</v>
+      </c>
+      <c r="F70" s="3" t="str">
+        <f>VLOOKUP(C70,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Bread</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>14</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2</v>
+      </c>
+      <c r="E71" s="3">
+        <v>2</v>
+      </c>
+      <c r="F71" s="3" t="str">
+        <f>VLOOKUP(C71,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>14</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" s="1">
+        <v>200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2</v>
+      </c>
+      <c r="F72" s="3" t="str">
+        <f>VLOOKUP(C72,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Pasta</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" s="1">
+        <v>14</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E73" s="3">
+        <v>2</v>
+      </c>
+      <c r="F73" s="3" t="str">
+        <f>VLOOKUP(C73,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="1">
+        <v>14</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2</v>
+      </c>
+      <c r="E74" s="3">
+        <v>2</v>
+      </c>
+      <c r="F74" s="3" t="str">
+        <f>VLOOKUP(C74,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>14</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1</v>
+      </c>
+      <c r="E75" s="3">
+        <v>2</v>
+      </c>
+      <c r="F75" s="3" t="str">
+        <f>VLOOKUP(C75,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" s="1">
+        <v>14</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2</v>
+      </c>
+      <c r="F76" s="3" t="str">
+        <f>VLOOKUP(C76,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Frozen</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
+        <v>14</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="1">
+        <v>2</v>
+      </c>
+      <c r="E77" s="3">
+        <v>2</v>
+      </c>
+      <c r="F77" s="3" t="str">
+        <f>VLOOKUP(C77,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="1">
+        <v>15</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D78" s="1">
+        <v>300</v>
+      </c>
+      <c r="E78" s="3">
+        <v>2</v>
+      </c>
+      <c r="F78" s="3" t="str">
+        <f>VLOOKUP(C78,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Pasta</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" s="1">
+        <v>15</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E79" s="3">
+        <v>2</v>
+      </c>
+      <c r="F79" s="3" t="str">
+        <f>VLOOKUP(C79,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="1">
+        <v>15</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+      <c r="E80" s="3">
+        <v>2</v>
+      </c>
+      <c r="F80" s="3" t="str">
+        <f>VLOOKUP(C80,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="1">
+        <v>15</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2</v>
+      </c>
+      <c r="F81" s="3" t="str">
+        <f>VLOOKUP(C81,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="1">
+        <v>15</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E82" s="3">
+        <v>2</v>
+      </c>
+      <c r="F82" s="3" t="str">
+        <f>VLOOKUP(C82,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" s="1">
+        <v>15</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2</v>
+      </c>
+      <c r="F83" s="3" t="str">
+        <f>VLOOKUP(C83,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Frozen</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="1">
+        <v>15</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+      <c r="E84" s="3">
+        <v>2</v>
+      </c>
+      <c r="F84" s="3" t="str">
+        <f>VLOOKUP(C84,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" s="1">
+        <v>15</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E85" s="3">
+        <v>2</v>
+      </c>
+      <c r="F85" s="3" t="str">
+        <f>VLOOKUP(C85,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" s="1">
+        <v>15</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" s="1">
+        <v>2</v>
+      </c>
+      <c r="E86" s="3">
+        <v>2</v>
+      </c>
+      <c r="F86" s="3" t="str">
+        <f>VLOOKUP(C86,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Fish</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" s="1">
+        <v>15</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E87" s="3">
+        <v>2</v>
+      </c>
+      <c r="F87" s="3" t="str">
+        <f>VLOOKUP(C87,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88" s="1">
+        <v>15</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E88" s="3">
+        <v>2</v>
+      </c>
+      <c r="F88" s="3" t="str">
+        <f>VLOOKUP(C88,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" s="1">
+        <v>15</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2</v>
+      </c>
+      <c r="F89" s="3" t="str">
+        <f>VLOOKUP(C89,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" s="1">
+        <v>16</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D90" s="1">
+        <v>300</v>
+      </c>
+      <c r="E90" s="3">
+        <v>2</v>
+      </c>
+      <c r="F90" s="3" t="str">
+        <f>VLOOKUP(C90,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Pasta</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91" s="1">
+        <v>16</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D91" s="1">
+        <v>1</v>
+      </c>
+      <c r="E91" s="3">
+        <v>2</v>
+      </c>
+      <c r="F91" s="3" t="str">
+        <f>VLOOKUP(C91,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92" s="1">
+        <v>16</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1</v>
+      </c>
+      <c r="E92" s="3">
+        <v>2</v>
+      </c>
+      <c r="F92" s="3" t="str">
+        <f>VLOOKUP(C92,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" s="1">
+        <v>16</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E93" s="3">
+        <v>2</v>
+      </c>
+      <c r="F93" s="3" t="str">
+        <f>VLOOKUP(C93,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" s="1">
+        <v>16</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E94" s="3">
+        <v>2</v>
+      </c>
+      <c r="F94" s="3" t="str">
+        <f>VLOOKUP(C94,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" s="1">
+        <v>16</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E95" s="3">
+        <v>2</v>
+      </c>
+      <c r="F95" s="3" t="str">
+        <f>VLOOKUP(C95,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" s="1">
+        <v>16</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E96" s="3">
+        <v>2</v>
+      </c>
+      <c r="F96" s="3" t="str">
+        <f>VLOOKUP(C96,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" s="1">
+        <v>16</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E97" s="3">
+        <v>2</v>
+      </c>
+      <c r="F97" s="3" t="str">
+        <f>VLOOKUP(C97,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" s="1">
+        <v>16</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D98" s="1">
+        <v>150</v>
+      </c>
+      <c r="E98" s="3">
+        <v>2</v>
+      </c>
+      <c r="F98" s="3" t="str">
+        <f>VLOOKUP(C98,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" s="1">
+        <v>16</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E99" s="3">
+        <v>2</v>
+      </c>
+      <c r="F99" s="3" t="str">
+        <f>VLOOKUP(C99,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" s="1">
+        <v>17</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" s="1">
+        <v>2</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2</v>
+      </c>
+      <c r="F100" s="3" t="str">
+        <f>VLOOKUP(C100,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101" s="1">
+        <v>17</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D101" s="1">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>2</v>
+      </c>
+      <c r="F101" s="3" t="str">
+        <f>VLOOKUP(C101,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Pasta</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" s="1">
+        <v>17</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D102" s="1">
+        <v>1</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2</v>
+      </c>
+      <c r="F102" s="3" t="str">
+        <f>VLOOKUP(C102,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" s="1">
+        <v>17</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D103" s="1">
+        <v>1</v>
+      </c>
+      <c r="E103" s="3">
+        <v>2</v>
+      </c>
+      <c r="F103" s="3" t="str">
+        <f>VLOOKUP(C103,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104" s="1">
+        <v>17</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D104" s="1">
+        <v>1</v>
+      </c>
+      <c r="E104" s="3">
+        <v>2</v>
+      </c>
+      <c r="F104" s="3" t="str">
+        <f>VLOOKUP(C104,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105" s="1">
+        <v>17</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D105" s="1">
+        <v>1</v>
+      </c>
+      <c r="E105" s="3">
+        <v>2</v>
+      </c>
+      <c r="F105" s="3" t="str">
+        <f>VLOOKUP(C105,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106" s="1">
+        <v>17</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E106" s="3">
+        <v>2</v>
+      </c>
+      <c r="F106" s="3" t="str">
+        <f>VLOOKUP(C106,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107" s="1">
+        <v>17</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E107" s="3">
+        <v>2</v>
+      </c>
+      <c r="F107" s="3" t="str">
+        <f>VLOOKUP(C107,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108" s="1">
+        <v>17</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E108" s="3">
+        <v>2</v>
+      </c>
+      <c r="F108" s="3" t="str">
+        <f>VLOOKUP(C108,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A109" s="1">
+        <v>18</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="1">
+        <v>2</v>
+      </c>
+      <c r="E109" s="3">
+        <v>2</v>
+      </c>
+      <c r="F109" s="3" t="str">
+        <f>VLOOKUP(C109,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A110" s="1">
+        <v>18</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E110" s="3">
+        <v>2</v>
+      </c>
+      <c r="F110" s="3" t="str">
+        <f>VLOOKUP(C110,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111" s="1">
+        <v>18</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E111" s="3">
+        <v>2</v>
+      </c>
+      <c r="F111" s="3" t="str">
+        <f>VLOOKUP(C111,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112" s="1">
+        <v>18</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E112" s="3">
+        <v>2</v>
+      </c>
+      <c r="F112" s="3" t="str">
+        <f>VLOOKUP(C112,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A113" s="1">
+        <v>18</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D113" s="1">
+        <v>2</v>
+      </c>
+      <c r="E113" s="3">
+        <v>2</v>
+      </c>
+      <c r="F113" s="3" t="str">
+        <f>VLOOKUP(C113,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A114" s="1">
+        <v>18</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D114" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E114" s="3">
+        <v>2</v>
+      </c>
+      <c r="F114" s="3" t="str">
+        <f>VLOOKUP(C114,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A115" s="1">
+        <v>18</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E115" s="3">
+        <v>2</v>
+      </c>
+      <c r="F115" s="3" t="str">
+        <f>VLOOKUP(C115,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -958,184 +3138,893 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39DC5D3-48DD-4434-AD5F-B09C98CDDF7C}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B19:B21"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1">
+        <f>COUNTIF($A$2:$A$1048576,A2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C47" si="0">COUNTIF($A$2:$A$1048576,A3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="C24" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="C40" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="C41" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C43" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="C48" s="1">
+        <f>COUNTIF($A$2:$A$1048576,A48)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="1">
+        <f>COUNTIF($A$2:$A$1048576,A49)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="1">
+        <f>COUNTIF($A$2:$A$1048576,A50)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" ref="C51:C73" si="1">COUNTIF($A$2:$A$1048576,A51)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Recipe_Master.xlsx
+++ b/Recipe_Master.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dufrain-my.sharepoint.com/personal/mdixon_dufrain_co_uk/Documents/Documents/Python Scripts/ShoppingList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="546" documentId="11_AD4DB114E441178AC67DF4E56ED0EB68693EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AF1C105-BF62-4639-AD1E-CDC5FF6C1E6A}"/>
+  <xr:revisionPtr revIDLastSave="262" documentId="13_ncr:1_{5F84BAAE-86C0-4378-88D2-7B60B2F8CD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EE992F0-C5EE-4F23-8928-CE932F2C452A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipes" sheetId="1" r:id="rId1"/>
     <sheet name="FG_LookUp" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Recipes!$A$1:$F$264</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="192">
   <si>
     <t>Meal_Name</t>
   </si>
@@ -129,15 +132,9 @@
     <t>Tinned Tomatoes</t>
   </si>
   <si>
-    <t>Mince</t>
-  </si>
-  <si>
     <t>White Onion</t>
   </si>
   <si>
-    <t>Fish and Veg</t>
-  </si>
-  <si>
     <t>Salmon</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>Asparagus</t>
   </si>
   <si>
-    <t>Fish</t>
-  </si>
-  <si>
     <t>Chorizo Soup</t>
   </si>
   <si>
@@ -355,6 +349,273 @@
   </si>
   <si>
     <t>Parsley</t>
+  </si>
+  <si>
+    <t>Fish mix</t>
+  </si>
+  <si>
+    <t>Balsamic glaze</t>
+  </si>
+  <si>
+    <t>Fish Pie</t>
+  </si>
+  <si>
+    <t>Flour</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Loaded Sweet Potatoes</t>
+  </si>
+  <si>
+    <t>Sweet Potato</t>
+  </si>
+  <si>
+    <t>White Wine Vinegar</t>
+  </si>
+  <si>
+    <t>Mixed Beans</t>
+  </si>
+  <si>
+    <t>Chickpeas</t>
+  </si>
+  <si>
+    <t>Orzo Salad</t>
+  </si>
+  <si>
+    <t>Fish And Veg</t>
+  </si>
+  <si>
+    <t>Fish Mix</t>
+  </si>
+  <si>
+    <t>Balsamic Glaze</t>
+  </si>
+  <si>
+    <t>Red Ratatouille Risotto</t>
+  </si>
+  <si>
+    <t>Aubergine</t>
+  </si>
+  <si>
+    <t>Courgette</t>
+  </si>
+  <si>
+    <t>Thyme</t>
+  </si>
+  <si>
+    <t>Tomato Purée</t>
+  </si>
+  <si>
+    <t>Fresh Basil</t>
+  </si>
+  <si>
+    <t>Orzo</t>
+  </si>
+  <si>
+    <t>Kalamata Olives</t>
+  </si>
+  <si>
+    <t>Lemon</t>
+  </si>
+  <si>
+    <t>Oregano</t>
+  </si>
+  <si>
+    <t>Feta</t>
+  </si>
+  <si>
+    <t>Tomatoes</t>
+  </si>
+  <si>
+    <t>Rosemary</t>
+  </si>
+  <si>
+    <t>Sun Dried Tomatoes</t>
+  </si>
+  <si>
+    <t>Risotto Rice</t>
+  </si>
+  <si>
+    <t>Red Wine</t>
+  </si>
+  <si>
+    <t>Pine Nuts</t>
+  </si>
+  <si>
+    <t>Cherry Tomato</t>
+  </si>
+  <si>
+    <t>Drink</t>
+  </si>
+  <si>
+    <t>Pizza Wraps</t>
+  </si>
+  <si>
+    <t>Parma Ham</t>
+  </si>
+  <si>
+    <t>Olives</t>
+  </si>
+  <si>
+    <t>Deli Meat</t>
+  </si>
+  <si>
+    <t>Kiev and Veg</t>
+  </si>
+  <si>
+    <t>Plant Kiev</t>
+  </si>
+  <si>
+    <t>Helen Wraps</t>
+  </si>
+  <si>
+    <t>Halloumi</t>
+  </si>
+  <si>
+    <t>Falafel</t>
+  </si>
+  <si>
+    <t>Sweet Chilli</t>
+  </si>
+  <si>
+    <t>Salad Bag</t>
+  </si>
+  <si>
+    <t>Basil</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>Beef Stock Cube</t>
+  </si>
+  <si>
+    <t>Burger in a Bowl</t>
+  </si>
+  <si>
+    <t>Mustard</t>
+  </si>
+  <si>
+    <t>Fat free Fromage Frais</t>
+  </si>
+  <si>
+    <t>Garlic Salt</t>
+  </si>
+  <si>
+    <t>Onion Granules</t>
+  </si>
+  <si>
+    <t>Smoked Paprika</t>
+  </si>
+  <si>
+    <t>Roast Dinner</t>
+  </si>
+  <si>
+    <t>Meat Joint</t>
+  </si>
+  <si>
+    <t>Potatoes</t>
+  </si>
+  <si>
+    <t>Stock Cube</t>
+  </si>
+  <si>
+    <t>Curried Chicken Skewers</t>
+  </si>
+  <si>
+    <t>Chicken Thighs</t>
+  </si>
+  <si>
+    <t>Curry Powder</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>Mint</t>
+  </si>
+  <si>
+    <t>Green Chill</t>
+  </si>
+  <si>
+    <t>Pitta</t>
+  </si>
+  <si>
+    <t>Steak Stir Fry</t>
+  </si>
+  <si>
+    <t>Sirloin Steak</t>
+  </si>
+  <si>
+    <t>Tenderstem Broccoli</t>
+  </si>
+  <si>
+    <t>Egg Noodles</t>
+  </si>
+  <si>
+    <t>Sesame Oil</t>
+  </si>
+  <si>
+    <t>Olive Oil</t>
+  </si>
+  <si>
+    <t>Lime</t>
+  </si>
+  <si>
+    <t>Red Chilli</t>
+  </si>
+  <si>
+    <t>Fish Finger Butty</t>
+  </si>
+  <si>
+    <t>Fish Fingers</t>
+  </si>
+  <si>
+    <t>Tartiflette</t>
+  </si>
+  <si>
+    <t>Brie</t>
+  </si>
+  <si>
+    <t>Heavy Cream</t>
+  </si>
+  <si>
+    <t>Korean Beef Tacos</t>
+  </si>
+  <si>
+    <t>Rice Vinegar</t>
+  </si>
+  <si>
+    <t>Beef Mince</t>
+  </si>
+  <si>
+    <t>Small Tortilla</t>
+  </si>
+  <si>
+    <t>Leek Gnocchi</t>
+  </si>
+  <si>
+    <t>Leek</t>
+  </si>
+  <si>
+    <t>Gnocchi</t>
+  </si>
+  <si>
+    <t>Crème Fraiche</t>
+  </si>
+  <si>
+    <t>Shirazi Salad</t>
+  </si>
+  <si>
+    <t>Wraps</t>
+  </si>
+  <si>
+    <t>Beef Tomatoes</t>
+  </si>
+  <si>
+    <t>Lemon Juice</t>
   </si>
 </sst>
 </file>
@@ -695,22 +956,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:G270"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
+      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C270" sqref="C270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="51.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="3"/>
+    <col min="11" max="11" width="41.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -747,7 +1013,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F2" s="3" t="str">
         <f>VLOOKUP(C2,FG_LookUp!$A$2:$B$1048576,2,0)</f>
@@ -768,7 +1034,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3" t="str">
         <f>VLOOKUP(C3,FG_LookUp!$A$2:$B$1048576,2,0)</f>
@@ -789,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>VLOOKUP(C4,FG_LookUp!$A$2:$B$1048576,2,0)</f>
@@ -810,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>VLOOKUP(C5,FG_LookUp!$A$2:$B$1048576,2,0)</f>
@@ -831,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>VLOOKUP(C6,FG_LookUp!$A$2:$B$1048576,2,0)</f>
@@ -852,7 +1118,7 @@
         <v>0.5</v>
       </c>
       <c r="E7" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>VLOOKUP(C7,FG_LookUp!$A$2:$B$1048576,2,0)</f>
@@ -873,7 +1139,7 @@
         <v>0.8</v>
       </c>
       <c r="E8" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F8" s="3" t="str">
         <f>VLOOKUP(C8,FG_LookUp!$A$2:$B$1048576,2,0)</f>
@@ -909,7 +1175,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D10" s="1">
         <v>0.5</v>
@@ -1035,7 +1301,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -1056,7 +1322,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>182</v>
       </c>
       <c r="D17" s="1">
         <v>250</v>
@@ -1077,7 +1343,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -1092,79 +1358,79 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="E19" s="3">
         <v>2</v>
       </c>
       <c r="F19" s="3" t="str">
         <f>VLOOKUP(C19,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Fish</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="D20" s="1">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
       </c>
       <c r="F20" s="3" t="str">
         <f>VLOOKUP(C20,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
       </c>
       <c r="F21" s="3" t="str">
         <f>VLOOKUP(C21,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>148</v>
       </c>
       <c r="D22" s="1">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="E22" s="3">
         <v>2</v>
@@ -1176,82 +1442,82 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="D23" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E23" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F23" s="3" t="str">
         <f>VLOOKUP(C23,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="D24" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E24" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F24" s="3" t="str">
         <f>VLOOKUP(C24,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
       </c>
       <c r="E25" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F25" s="3" t="str">
         <f>VLOOKUP(C25,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
       </c>
       <c r="E26" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3" t="str">
         <f>VLOOKUP(C26,FG_LookUp!$A$2:$B$1048576,2,0)</f>
@@ -1260,40 +1526,40 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D27" s="1">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="E27" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F27" s="3" t="str">
         <f>VLOOKUP(C27,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Pasta</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
       </c>
       <c r="E28" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F28" s="3" t="str">
         <f>VLOOKUP(C28,FG_LookUp!$A$2:$B$1048576,2,0)</f>
@@ -1305,20 +1571,20 @@
         <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D29" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" s="3">
         <v>6</v>
       </c>
       <c r="F29" s="3" t="str">
         <f>VLOOKUP(C29,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Jar</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -1326,10 +1592,10 @@
         <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -1339,207 +1605,207 @@
       </c>
       <c r="F30" s="3" t="str">
         <f>VLOOKUP(C30,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D31" s="1">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="E31" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F31" s="3" t="str">
         <f>VLOOKUP(C31,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D32" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E32" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F32" s="3" t="str">
         <f>VLOOKUP(C32,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Bread</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D33" s="1">
-        <v>0.5</v>
+        <v>200</v>
       </c>
       <c r="E33" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F33" s="3" t="str">
         <f>VLOOKUP(C33,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Pasta</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D34" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E34" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F34" s="3" t="str">
         <f>VLOOKUP(C34,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D35" s="1">
         <v>2</v>
       </c>
       <c r="E35" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F35" s="3" t="str">
         <f>VLOOKUP(C35,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Fish</v>
+        <v>Jar</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
       <c r="E36" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F36" s="3" t="str">
         <f>VLOOKUP(C36,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="D37" s="1">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="E37" s="3">
         <v>2</v>
       </c>
       <c r="F37" s="3" t="str">
         <f>VLOOKUP(C37,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Frozen</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D38" s="1">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
       </c>
       <c r="F38" s="3" t="str">
         <f>VLOOKUP(C38,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Bread</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D39" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E39" s="3">
         <v>2</v>
       </c>
       <c r="F39" s="3" t="str">
         <f>VLOOKUP(C39,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Pasta</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D40" s="1">
         <v>0.5</v>
@@ -1557,115 +1823,115 @@
         <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D41" s="1">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="E41" s="3">
         <v>2</v>
       </c>
       <c r="F41" s="3" t="str">
         <f>VLOOKUP(C41,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D42" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E42" s="3">
         <v>2</v>
       </c>
       <c r="F42" s="3" t="str">
         <f>VLOOKUP(C42,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Pasta</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D43" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" s="3">
         <v>2</v>
       </c>
       <c r="F43" s="3" t="str">
         <f>VLOOKUP(C43,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Jar</v>
+        <v>Frozen</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="D44" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
       </c>
       <c r="F44" s="3" t="str">
         <f>VLOOKUP(C44,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D45" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E45" s="3">
         <v>2</v>
       </c>
       <c r="F45" s="3" t="str">
         <f>VLOOKUP(C45,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Pasta</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D46" s="1">
         <v>0.5</v>
@@ -1675,238 +1941,238 @@
       </c>
       <c r="F46" s="3" t="str">
         <f>VLOOKUP(C46,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Bread</v>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D47" s="1">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="E47" s="3">
         <v>2</v>
       </c>
       <c r="F47" s="3" t="str">
         <f>VLOOKUP(C47,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Fish</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D48" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E48" s="3">
         <v>2</v>
       </c>
       <c r="F48" s="3" t="str">
         <f>VLOOKUP(C48,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Pasta</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="3">
         <v>2</v>
       </c>
       <c r="F49" s="3" t="str">
         <f>VLOOKUP(C49,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Jar</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="D50" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E50" s="3">
         <v>2</v>
       </c>
       <c r="F50" s="3" t="str">
         <f>VLOOKUP(C50,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D51" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E51" s="3">
         <v>2</v>
       </c>
       <c r="F51" s="3" t="str">
         <f>VLOOKUP(C51,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="D52" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E52" s="3">
         <v>2</v>
       </c>
       <c r="F52" s="3" t="str">
         <f>VLOOKUP(C52,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Fish</v>
+        <v>Bread</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D53" s="1">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E53" s="3">
         <v>2</v>
       </c>
       <c r="F53" s="3" t="str">
         <f>VLOOKUP(C53,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D54" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E54" s="3">
         <v>2</v>
       </c>
       <c r="F54" s="3" t="str">
         <f>VLOOKUP(C54,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D55" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E55" s="3">
         <v>2</v>
       </c>
       <c r="F55" s="3" t="str">
         <f>VLOOKUP(C55,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D56" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E56" s="3">
         <v>2</v>
       </c>
       <c r="F56" s="3" t="str">
         <f>VLOOKUP(C56,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D57" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E57" s="3">
         <v>2</v>
       </c>
       <c r="F57" s="3" t="str">
         <f>VLOOKUP(C57,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
@@ -1914,20 +2180,20 @@
         <v>11</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="D58" s="1">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E58" s="3">
         <v>2</v>
       </c>
       <c r="F58" s="3" t="str">
         <f>VLOOKUP(C58,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
@@ -1935,10 +2201,10 @@
         <v>11</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D59" s="1">
         <v>0.5</v>
@@ -1948,21 +2214,21 @@
       </c>
       <c r="F59" s="3" t="str">
         <f>VLOOKUP(C59,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D60" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E60" s="3">
         <v>2</v>
@@ -1974,55 +2240,55 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D61" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E61" s="3">
         <v>2</v>
       </c>
       <c r="F61" s="3" t="str">
         <f>VLOOKUP(C61,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Jar</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D62" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E62" s="3">
         <v>2</v>
       </c>
       <c r="F62" s="3" t="str">
         <f>VLOOKUP(C62,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D63" s="1">
         <v>0.5</v>
@@ -2037,13 +2303,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D64" s="1">
         <v>0.5</v>
@@ -2053,18 +2319,18 @@
       </c>
       <c r="F64" s="3" t="str">
         <f>VLOOKUP(C64,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D65" s="1">
         <v>0.5</v>
@@ -2074,39 +2340,39 @@
       </c>
       <c r="F65" s="3" t="str">
         <f>VLOOKUP(C65,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="D66" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" s="3">
         <v>2</v>
       </c>
       <c r="F66" s="3" t="str">
         <f>VLOOKUP(C66,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
@@ -2116,18 +2382,18 @@
       </c>
       <c r="F67" s="3" t="str">
         <f>VLOOKUP(C67,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Jar</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
+        <v>12</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
@@ -2137,105 +2403,105 @@
       </c>
       <c r="F68" s="3" t="str">
         <f>VLOOKUP(C68,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="D69" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E69" s="3">
         <v>2</v>
       </c>
       <c r="F69" s="3" t="str">
         <f>VLOOKUP(C69,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D70" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E70" s="3">
         <v>2</v>
       </c>
       <c r="F70" s="3" t="str">
         <f>VLOOKUP(C70,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Bread</v>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="D71" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E71" s="3">
         <v>2</v>
       </c>
       <c r="F71" s="3" t="str">
         <f>VLOOKUP(C71,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D72" s="1">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="E72" s="3">
         <v>2</v>
       </c>
       <c r="F72" s="3" t="str">
         <f>VLOOKUP(C72,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Pasta</v>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D73" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E73" s="3">
         <v>2</v>
@@ -2247,16 +2513,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="D74" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74" s="3">
         <v>2</v>
@@ -2268,13 +2534,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="D75" s="1">
         <v>1</v>
@@ -2289,23 +2555,23 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D76" s="1">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="E76" s="3">
         <v>2</v>
       </c>
       <c r="F76" s="3" t="str">
         <f>VLOOKUP(C76,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Frozen</v>
+        <v>Bread</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
@@ -2313,10 +2579,10 @@
         <v>14</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D77" s="1">
         <v>2</v>
@@ -2326,21 +2592,21 @@
       </c>
       <c r="F77" s="3" t="str">
         <f>VLOOKUP(C77,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="D78" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E78" s="3">
         <v>2</v>
@@ -2352,16 +2618,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="D79" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E79" s="3">
         <v>2</v>
@@ -2373,16 +2639,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="D80" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E80" s="3">
         <v>2</v>
@@ -2394,65 +2660,65 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E81" s="3">
         <v>2</v>
       </c>
       <c r="F81" s="3" t="str">
         <f>VLOOKUP(C81,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="D82" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E82" s="3">
         <v>2</v>
       </c>
       <c r="F82" s="3" t="str">
         <f>VLOOKUP(C82,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Frozen</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="D83" s="1">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="E83" s="3">
         <v>2</v>
       </c>
       <c r="F83" s="3" t="str">
         <f>VLOOKUP(C83,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Frozen</v>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
@@ -2460,20 +2726,20 @@
         <v>15</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D84" s="1">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E84" s="3">
         <v>2</v>
       </c>
       <c r="F84" s="3" t="str">
         <f>VLOOKUP(C84,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Pasta</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
@@ -2481,20 +2747,20 @@
         <v>15</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="D85" s="1">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E85" s="3">
         <v>2</v>
       </c>
       <c r="F85" s="3" t="str">
         <f>VLOOKUP(C85,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
@@ -2502,20 +2768,20 @@
         <v>15</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="D86" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E86" s="3">
         <v>2</v>
       </c>
       <c r="F86" s="3" t="str">
         <f>VLOOKUP(C86,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Fish</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
@@ -2523,10 +2789,10 @@
         <v>15</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D87" s="1">
         <v>0.1</v>
@@ -2544,10 +2810,10 @@
         <v>15</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D88" s="1">
         <v>0.1</v>
@@ -2565,55 +2831,55 @@
         <v>15</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="D89" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E89" s="3">
         <v>2</v>
       </c>
       <c r="F89" s="3" t="str">
         <f>VLOOKUP(C89,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Frozen</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D90" s="1">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="E90" s="3">
         <v>2</v>
       </c>
       <c r="F90" s="3" t="str">
         <f>VLOOKUP(C90,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Pasta</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D91" s="1">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="E91" s="3">
         <v>2</v>
@@ -2625,37 +2891,37 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="D92" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E92" s="3">
         <v>2</v>
       </c>
       <c r="F92" s="3" t="str">
         <f>VLOOKUP(C92,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D93" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E93" s="3">
         <v>2</v>
@@ -2667,13 +2933,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="D94" s="1">
         <v>0.1</v>
@@ -2688,13 +2954,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="D95" s="1">
         <v>0.1</v>
@@ -2709,13 +2975,13 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="D96" s="1">
         <v>0.1</v>
@@ -2725,7 +2991,7 @@
       </c>
       <c r="F96" s="3" t="str">
         <f>VLOOKUP(C96,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
@@ -2733,20 +2999,20 @@
         <v>16</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D97" s="1">
-        <v>0.2</v>
+        <v>300</v>
       </c>
       <c r="E97" s="3">
         <v>2</v>
       </c>
       <c r="F97" s="3" t="str">
         <f>VLOOKUP(C97,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Pasta</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
@@ -2754,13 +3020,13 @@
         <v>16</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="D98" s="1">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="E98" s="3">
         <v>2</v>
@@ -2775,13 +3041,13 @@
         <v>16</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D99" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E99" s="3">
         <v>2</v>
@@ -2793,58 +3059,58 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D100" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="E100" s="3">
         <v>2</v>
       </c>
       <c r="F100" s="3" t="str">
         <f>VLOOKUP(C100,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D101" s="1">
-        <v>300</v>
+        <v>0.1</v>
       </c>
       <c r="E101" s="3">
         <v>2</v>
       </c>
       <c r="F101" s="3" t="str">
         <f>VLOOKUP(C101,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Pasta</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D102" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E102" s="3">
         <v>2</v>
@@ -2856,58 +3122,58 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E103" s="3">
         <v>2</v>
       </c>
       <c r="F103" s="3" t="str">
         <f>VLOOKUP(C103,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="D104" s="1">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E104" s="3">
         <v>2</v>
       </c>
       <c r="F104" s="3" t="str">
         <f>VLOOKUP(C104,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D105" s="1">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="E105" s="3">
         <v>2</v>
@@ -2919,16 +3185,16 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D106" s="1">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="E106" s="3">
         <v>2</v>
@@ -2943,20 +3209,20 @@
         <v>17</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D107" s="1">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="E107" s="3">
         <v>2</v>
       </c>
       <c r="F107" s="3" t="str">
         <f>VLOOKUP(C107,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
@@ -2964,157 +3230,157 @@
         <v>17</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D108" s="1">
-        <v>0.2</v>
+        <v>300</v>
       </c>
       <c r="E108" s="3">
         <v>2</v>
       </c>
       <c r="F108" s="3" t="str">
         <f>VLOOKUP(C108,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Pasta</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="D109" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E109" s="3">
         <v>2</v>
       </c>
       <c r="F109" s="3" t="str">
         <f>VLOOKUP(C109,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D110" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E110" s="3">
         <v>2</v>
       </c>
       <c r="F110" s="3" t="str">
         <f>VLOOKUP(C110,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="D111" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E111" s="3">
         <v>2</v>
       </c>
       <c r="F111" s="3" t="str">
         <f>VLOOKUP(C111,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="D112" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E112" s="3">
         <v>2</v>
       </c>
       <c r="F112" s="3" t="str">
         <f>VLOOKUP(C112,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="D113" s="1">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="E113" s="3">
         <v>2</v>
       </c>
       <c r="F113" s="3" t="str">
         <f>VLOOKUP(C113,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D114" s="1">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E114" s="3">
         <v>2</v>
       </c>
       <c r="F114" s="3" t="str">
         <f>VLOOKUP(C114,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="D115" s="1">
         <v>0.2</v>
@@ -3124,25 +3390,3293 @@
       </c>
       <c r="F115" s="3" t="str">
         <f>VLOOKUP(C115,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
+      <c r="A116" s="1">
+        <v>18</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="1">
+        <v>2</v>
+      </c>
+      <c r="E116" s="3">
+        <v>2</v>
+      </c>
+      <c r="F116" s="3" t="str">
+        <f>VLOOKUP(C116,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A117" s="1">
+        <v>18</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D117" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E117" s="3">
+        <v>2</v>
+      </c>
+      <c r="F117" s="3" t="str">
+        <f>VLOOKUP(C117,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A118" s="1">
+        <v>18</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E118" s="3">
+        <v>2</v>
+      </c>
+      <c r="F118" s="3" t="str">
+        <f>VLOOKUP(C118,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A119" s="1">
+        <v>18</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E119" s="3">
+        <v>2</v>
+      </c>
+      <c r="F119" s="3" t="str">
+        <f>VLOOKUP(C119,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A120" s="1">
+        <v>18</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D120" s="1">
+        <v>2</v>
+      </c>
+      <c r="E120" s="3">
+        <v>2</v>
+      </c>
+      <c r="F120" s="3" t="str">
+        <f>VLOOKUP(C120,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A121" s="1">
+        <v>18</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D121" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E121" s="3">
+        <v>2</v>
+      </c>
+      <c r="F121" s="3" t="str">
+        <f>VLOOKUP(C121,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A122" s="1">
+        <v>18</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D122" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E122" s="3">
+        <v>2</v>
+      </c>
+      <c r="F122" s="3" t="str">
+        <f>VLOOKUP(C122,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A123" s="1">
+        <v>19</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D123" s="1">
+        <v>1</v>
+      </c>
+      <c r="E123" s="3">
+        <v>2</v>
+      </c>
+      <c r="F123" s="3" t="str">
+        <f>VLOOKUP(C123,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A124" s="1">
+        <v>19</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D124" s="1">
+        <v>1</v>
+      </c>
+      <c r="E124" s="3">
+        <v>2</v>
+      </c>
+      <c r="F124" s="3" t="str">
+        <f>VLOOKUP(C124,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A125" s="1">
+        <v>19</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D125" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E125" s="3">
+        <v>2</v>
+      </c>
+      <c r="F125" s="3" t="str">
+        <f>VLOOKUP(C125,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A126" s="1">
+        <v>19</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D126" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E126" s="3">
+        <v>2</v>
+      </c>
+      <c r="F126" s="3" t="str">
+        <f>VLOOKUP(C126,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A127" s="1">
+        <v>19</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D127" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E127" s="3">
+        <v>2</v>
+      </c>
+      <c r="F127" s="3" t="str">
+        <f>VLOOKUP(C127,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A128" s="1">
+        <v>19</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D128" s="1">
+        <v>4</v>
+      </c>
+      <c r="E128" s="3">
+        <v>2</v>
+      </c>
+      <c r="F128" s="3" t="str">
+        <f>VLOOKUP(C128,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A129" s="1">
+        <v>19</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D129" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E129" s="3">
+        <v>2</v>
+      </c>
+      <c r="F129" s="3" t="str">
+        <f>VLOOKUP(C129,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A130" s="1">
+        <v>19</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D130" s="1">
+        <v>200</v>
+      </c>
+      <c r="E130" s="3">
+        <v>2</v>
+      </c>
+      <c r="F130" s="3" t="str">
+        <f>VLOOKUP(C130,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A131" s="1">
+        <v>19</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" s="1">
+        <v>2</v>
+      </c>
+      <c r="E131" s="3">
+        <v>2</v>
+      </c>
+      <c r="F131" s="3" t="str">
+        <f>VLOOKUP(C131,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A132" s="1">
+        <v>19</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D132" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E132" s="3">
+        <v>2</v>
+      </c>
+      <c r="F132" s="3" t="str">
+        <f>VLOOKUP(C132,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A133" s="1">
+        <v>20</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D133" s="1">
+        <v>2</v>
+      </c>
+      <c r="E133" s="3">
+        <v>2</v>
+      </c>
+      <c r="F133" s="3" t="str">
+        <f>VLOOKUP(C133,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A134" s="1">
+        <v>20</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D134" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E134" s="3">
+        <v>2</v>
+      </c>
+      <c r="F134" s="3" t="str">
+        <f>VLOOKUP(C134,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A135" s="1">
+        <v>20</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D135" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E135" s="3">
+        <v>2</v>
+      </c>
+      <c r="F135" s="3" t="str">
+        <f>VLOOKUP(C135,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A136" s="1">
+        <v>20</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D136" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E136" s="3">
+        <v>2</v>
+      </c>
+      <c r="F136" s="3" t="str">
+        <f>VLOOKUP(C136,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A137" s="1">
+        <v>20</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D137" s="1">
+        <v>1</v>
+      </c>
+      <c r="E137" s="3">
+        <v>2</v>
+      </c>
+      <c r="F137" s="3" t="str">
+        <f>VLOOKUP(C137,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Jar</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A138" s="1">
+        <v>20</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D138" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E138" s="3">
+        <v>2</v>
+      </c>
+      <c r="F138" s="3" t="str">
+        <f>VLOOKUP(C138,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Jar</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A139" s="1">
+        <v>20</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="1">
+        <v>1</v>
+      </c>
+      <c r="E139" s="3">
+        <v>2</v>
+      </c>
+      <c r="F139" s="3" t="str">
+        <f>VLOOKUP(C139,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A140" s="1">
+        <v>20</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D140" s="1">
+        <v>1</v>
+      </c>
+      <c r="E140" s="3">
+        <v>2</v>
+      </c>
+      <c r="F140" s="3" t="str">
+        <f>VLOOKUP(C140,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A141" s="1">
+        <v>20</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D141" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E141" s="3">
+        <v>2</v>
+      </c>
+      <c r="F141" s="3" t="str">
+        <f>VLOOKUP(C141,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Jar</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A142" s="1">
+        <v>20</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D142" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E142" s="3">
+        <v>2</v>
+      </c>
+      <c r="F142" s="3" t="str">
+        <f>VLOOKUP(C142,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A143" s="1">
+        <v>20</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E143" s="3">
+        <v>2</v>
+      </c>
+      <c r="F143" s="3" t="str">
+        <f>VLOOKUP(C143,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A144" s="1">
+        <v>20</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D144" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E144" s="3">
+        <v>2</v>
+      </c>
+      <c r="F144" s="3" t="str">
+        <f>VLOOKUP(C144,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A145" s="1">
+        <v>21</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D145" s="1">
+        <v>1</v>
+      </c>
+      <c r="E145" s="3">
+        <v>2</v>
+      </c>
+      <c r="F145" s="3" t="str">
+        <f>VLOOKUP(C145,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A146" s="1">
+        <v>21</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D146" s="1">
+        <v>1</v>
+      </c>
+      <c r="E146" s="3">
+        <v>2</v>
+      </c>
+      <c r="F146" s="3" t="str">
+        <f>VLOOKUP(C146,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A147" s="1">
+        <v>21</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D147" s="1">
+        <v>1</v>
+      </c>
+      <c r="E147" s="3">
+        <v>2</v>
+      </c>
+      <c r="F147" s="3" t="str">
+        <f>VLOOKUP(C147,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A148" s="1">
+        <v>21</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" s="1">
+        <v>4</v>
+      </c>
+      <c r="E148" s="3">
+        <v>2</v>
+      </c>
+      <c r="F148" s="3" t="str">
+        <f>VLOOKUP(C148,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A149" s="1">
+        <v>21</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D149" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E149" s="3">
+        <v>2</v>
+      </c>
+      <c r="F149" s="3" t="str">
+        <f>VLOOKUP(C149,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A150" s="1">
+        <v>21</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D150" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E150" s="3">
+        <v>2</v>
+      </c>
+      <c r="F150" s="3" t="str">
+        <f>VLOOKUP(C150,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A151" s="1">
+        <v>21</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D151" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E151" s="3">
+        <v>2</v>
+      </c>
+      <c r="F151" s="3" t="str">
+        <f>VLOOKUP(C151,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Jar</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A152" s="1">
+        <v>21</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D152" s="1">
+        <v>120</v>
+      </c>
+      <c r="E152" s="3">
+        <v>2</v>
+      </c>
+      <c r="F152" s="3" t="str">
+        <f>VLOOKUP(C152,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Pasta</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A153" s="1">
+        <v>21</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D153" s="1">
+        <v>240</v>
+      </c>
+      <c r="E153" s="3">
+        <v>2</v>
+      </c>
+      <c r="F153" s="3" t="str">
+        <f>VLOOKUP(C153,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Drink</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A154" s="1">
+        <v>21</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D154" s="1">
+        <v>1</v>
+      </c>
+      <c r="E154" s="3">
+        <v>2</v>
+      </c>
+      <c r="F154" s="3" t="str">
+        <f>VLOOKUP(C154,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A155" s="1">
+        <v>21</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D155" s="1">
+        <v>30</v>
+      </c>
+      <c r="E155" s="3">
+        <v>2</v>
+      </c>
+      <c r="F155" s="3" t="str">
+        <f>VLOOKUP(C155,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A156" s="1">
+        <v>21</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D156" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E156" s="3">
+        <v>2</v>
+      </c>
+      <c r="F156" s="3" t="str">
+        <f>VLOOKUP(C156,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A157" s="1">
+        <v>21</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D157" s="1">
+        <v>1</v>
+      </c>
+      <c r="E157" s="3">
+        <v>2</v>
+      </c>
+      <c r="F157" s="3" t="str">
+        <f>VLOOKUP(C157,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A158" s="1">
+        <v>22</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D158" s="1">
+        <v>200</v>
+      </c>
+      <c r="E158" s="3">
+        <v>2</v>
+      </c>
+      <c r="F158" s="3" t="str">
+        <f>VLOOKUP(C158,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Pasta</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A159" s="1">
+        <v>22</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159" s="1">
+        <v>1</v>
+      </c>
+      <c r="E159" s="3">
+        <v>2</v>
+      </c>
+      <c r="F159" s="3" t="str">
+        <f>VLOOKUP(C159,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A160" s="1">
+        <v>22</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D160" s="1">
+        <v>1</v>
+      </c>
+      <c r="E160" s="3">
+        <v>2</v>
+      </c>
+      <c r="F160" s="3" t="str">
+        <f>VLOOKUP(C160,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A161" s="1">
+        <v>22</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D161" s="1">
+        <v>1</v>
+      </c>
+      <c r="E161" s="3">
+        <v>2</v>
+      </c>
+      <c r="F161" s="3" t="str">
+        <f>VLOOKUP(C161,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A162" s="1">
+        <v>22</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D162" s="1">
+        <v>1</v>
+      </c>
+      <c r="E162" s="3">
+        <v>2</v>
+      </c>
+      <c r="F162" s="3" t="str">
+        <f>VLOOKUP(C162,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Jar</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A163" s="1">
+        <v>22</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D163" s="1">
+        <v>1</v>
+      </c>
+      <c r="E163" s="3">
+        <v>2</v>
+      </c>
+      <c r="F163" s="3" t="str">
+        <f>VLOOKUP(C163,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Jar</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A164" s="1">
+        <v>22</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D164" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E164" s="3">
+        <v>2</v>
+      </c>
+      <c r="F164" s="3" t="str">
+        <f>VLOOKUP(C164,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A165" s="1">
+        <v>22</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D165" s="1">
+        <v>1</v>
+      </c>
+      <c r="E165" s="3">
+        <v>2</v>
+      </c>
+      <c r="F165" s="3" t="str">
+        <f>VLOOKUP(C165,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A166" s="1">
+        <v>22</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D166" s="1">
+        <v>1</v>
+      </c>
+      <c r="E166" s="3">
+        <v>2</v>
+      </c>
+      <c r="F166" s="3" t="str">
+        <f>VLOOKUP(C166,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A167" s="1">
+        <v>22</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D167" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E167" s="3">
+        <v>2</v>
+      </c>
+      <c r="F167" s="3" t="str">
+        <f>VLOOKUP(C167,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A168" s="1">
+        <v>23</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D168" s="1">
+        <v>2</v>
+      </c>
+      <c r="E168" s="3">
+        <v>2</v>
+      </c>
+      <c r="F168" s="3" t="str">
+        <f>VLOOKUP(C168,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Bread</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A169" s="1">
+        <v>23</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D169" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E169" s="3">
+        <v>2</v>
+      </c>
+      <c r="F169" s="3" t="str">
+        <f>VLOOKUP(C169,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A170" s="1">
+        <v>23</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D170" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E170" s="3">
+        <v>2</v>
+      </c>
+      <c r="F170" s="3" t="str">
+        <f>VLOOKUP(C170,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A171" s="1">
+        <v>23</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D171" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E171" s="3">
+        <v>2</v>
+      </c>
+      <c r="F171" s="3" t="str">
+        <f>VLOOKUP(C171,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A172" s="1">
+        <v>23</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D172" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E172" s="3">
+        <v>2</v>
+      </c>
+      <c r="F172" s="3" t="str">
+        <f>VLOOKUP(C172,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A173" s="1">
+        <v>23</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D173" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E173" s="3">
+        <v>2</v>
+      </c>
+      <c r="F173" s="3" t="str">
+        <f>VLOOKUP(C173,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Jar</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A174" s="1">
+        <v>23</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D174" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E174" s="3">
+        <v>2</v>
+      </c>
+      <c r="F174" s="3" t="str">
+        <f>VLOOKUP(C174,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A175" s="1">
+        <v>23</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D175" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E175" s="3">
+        <v>2</v>
+      </c>
+      <c r="F175" s="3" t="str">
+        <f>VLOOKUP(C175,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Jar</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A176" s="1">
+        <v>24</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D176" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E176" s="3">
+        <v>2</v>
+      </c>
+      <c r="F176" s="3" t="str">
+        <f>VLOOKUP(C176,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A177" s="1">
+        <v>24</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177" s="1">
+        <v>1</v>
+      </c>
+      <c r="E177" s="3">
+        <v>2</v>
+      </c>
+      <c r="F177" s="3" t="str">
+        <f>VLOOKUP(C177,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A178" s="1">
+        <v>24</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D178" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E178" s="3">
+        <v>2</v>
+      </c>
+      <c r="F178" s="3" t="str">
+        <f>VLOOKUP(C178,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A179" s="1">
+        <v>24</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D179" s="1">
+        <v>1</v>
+      </c>
+      <c r="E179" s="3">
+        <v>2</v>
+      </c>
+      <c r="F179" s="3" t="str">
+        <f>VLOOKUP(C179,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A180" s="1">
+        <v>24</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D180" s="1">
+        <v>1</v>
+      </c>
+      <c r="E180" s="3">
+        <v>2</v>
+      </c>
+      <c r="F180" s="3" t="str">
+        <f>VLOOKUP(C180,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A181" s="1">
+        <v>24</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D181" s="1">
+        <v>2</v>
+      </c>
+      <c r="E181" s="3">
+        <v>4</v>
+      </c>
+      <c r="F181" s="3" t="str">
+        <f>VLOOKUP(C181,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A182" s="1">
+        <v>24</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D182" s="1">
+        <v>1</v>
+      </c>
+      <c r="E182" s="3">
+        <v>4</v>
+      </c>
+      <c r="F182" s="3" t="str">
+        <f>VLOOKUP(C182,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A183" s="1">
+        <v>24</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D183" s="1">
+        <v>1</v>
+      </c>
+      <c r="E183" s="3">
+        <v>4</v>
+      </c>
+      <c r="F183" s="3" t="str">
+        <f>VLOOKUP(C183,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A184" s="1">
+        <v>24</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E184" s="3">
+        <v>4</v>
+      </c>
+      <c r="F184" s="3" t="str">
+        <f>VLOOKUP(C184,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A185" s="1">
+        <v>24</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D185" s="1">
+        <v>4</v>
+      </c>
+      <c r="E185" s="3">
+        <v>4</v>
+      </c>
+      <c r="F185" s="3" t="str">
+        <f>VLOOKUP(C185,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Bread</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A186" s="1">
+        <v>24</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D186" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E186" s="3">
+        <v>4</v>
+      </c>
+      <c r="F186" s="3" t="str">
+        <f>VLOOKUP(C186,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A187" s="1">
+        <v>24</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D187" s="1">
+        <v>1</v>
+      </c>
+      <c r="E187" s="3">
+        <v>4</v>
+      </c>
+      <c r="F187" s="3" t="str">
+        <f>VLOOKUP(C187,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A188" s="1">
+        <v>25</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D188" s="1">
+        <v>250</v>
+      </c>
+      <c r="E188" s="3">
+        <v>2</v>
+      </c>
+      <c r="F188" s="3" t="str">
+        <f>VLOOKUP(C188,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Meat</v>
+      </c>
+      <c r="G188" s="1"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A189" s="1">
+        <v>25</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D189" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E189" s="3">
+        <v>2</v>
+      </c>
+      <c r="F189" s="3" t="str">
+        <f>VLOOKUP(C189,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+      <c r="G189" s="1"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A190" s="1">
+        <v>25</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D190" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E190" s="3">
+        <v>2</v>
+      </c>
+      <c r="F190" s="3" t="str">
+        <f>VLOOKUP(C190,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+      <c r="G190" s="1"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A191" s="1">
+        <v>25</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" s="1">
+        <v>1</v>
+      </c>
+      <c r="E191" s="3">
+        <v>2</v>
+      </c>
+      <c r="F191" s="3" t="str">
+        <f>VLOOKUP(C191,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Meat</v>
+      </c>
+      <c r="G191" s="1"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A192" s="1">
+        <v>25</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" s="1">
+        <v>1</v>
+      </c>
+      <c r="E192" s="3">
+        <v>2</v>
+      </c>
+      <c r="F192" s="3" t="str">
+        <f>VLOOKUP(C192,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+      <c r="G192" s="1"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A193" s="1">
+        <v>25</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D193" s="1">
+        <v>1</v>
+      </c>
+      <c r="E193" s="3">
+        <v>2</v>
+      </c>
+      <c r="F193" s="3" t="str">
+        <f>VLOOKUP(C193,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+      <c r="G193" s="1"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A194" s="1">
+        <v>25</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D194" s="1">
+        <v>1</v>
+      </c>
+      <c r="E194" s="3">
+        <v>2</v>
+      </c>
+      <c r="F194" s="3" t="str">
+        <f>VLOOKUP(C194,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+      <c r="G194" s="1"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A195" s="1">
+        <v>25</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D195" s="1">
+        <v>1</v>
+      </c>
+      <c r="E195" s="3">
+        <v>2</v>
+      </c>
+      <c r="F195" s="3" t="str">
+        <f>VLOOKUP(C195,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+      <c r="G195" s="1"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A196" s="1">
+        <v>25</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D196" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E196" s="3">
+        <v>2</v>
+      </c>
+      <c r="F196" s="3" t="str">
+        <f>VLOOKUP(C196,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+      <c r="G196" s="1"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A197" s="1">
+        <v>25</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D197" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E197" s="3">
+        <v>2</v>
+      </c>
+      <c r="F197" s="3" t="str">
+        <f>VLOOKUP(C197,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+      <c r="G197" s="1"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A198" s="1">
+        <v>25</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D198" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E198" s="3">
+        <v>2</v>
+      </c>
+      <c r="F198" s="3" t="str">
+        <f>VLOOKUP(C198,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+      <c r="G198" s="1"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A199" s="1">
+        <v>25</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D199" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E199" s="3">
+        <v>2</v>
+      </c>
+      <c r="F199" s="3" t="str">
+        <f>VLOOKUP(C199,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+      <c r="G199" s="1"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A200" s="1">
+        <v>25</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D200" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E200" s="3">
+        <v>2</v>
+      </c>
+      <c r="F200" s="3" t="str">
+        <f>VLOOKUP(C200,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+      <c r="G200" s="1"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A201" s="1">
+        <v>25</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D201" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E201" s="3">
+        <v>2</v>
+      </c>
+      <c r="F201" s="3" t="str">
+        <f>VLOOKUP(C201,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+      <c r="G201" s="1"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A202" s="1">
+        <v>25</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D202" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E202" s="3">
+        <v>2</v>
+      </c>
+      <c r="F202" s="3" t="str">
+        <f>VLOOKUP(C202,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+      <c r="G202" s="1"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A203" s="1">
+        <v>25</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D203" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E203" s="3">
+        <v>2</v>
+      </c>
+      <c r="F203" s="3" t="str">
+        <f>VLOOKUP(C203,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+      <c r="G203" s="1"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A204" s="1">
+        <v>26</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D204" s="1">
+        <v>1</v>
+      </c>
+      <c r="E204" s="3">
+        <v>2</v>
+      </c>
+      <c r="F204" s="3" t="str">
+        <f>VLOOKUP(C204,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A205" s="1">
+        <v>26</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D205" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E205" s="3">
+        <v>2</v>
+      </c>
+      <c r="F205" s="3" t="str">
+        <f>VLOOKUP(C205,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A206" s="1">
+        <v>26</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D206" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E206" s="3">
+        <v>2</v>
+      </c>
+      <c r="F206" s="3" t="str">
+        <f>VLOOKUP(C206,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A207" s="1">
+        <v>26</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D207" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E207" s="3">
+        <v>2</v>
+      </c>
+      <c r="F207" s="3" t="str">
+        <f>VLOOKUP(C207,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A208" s="1">
+        <v>26</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D208" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E208" s="3">
+        <v>2</v>
+      </c>
+      <c r="F208" s="3" t="str">
+        <f>VLOOKUP(C208,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A209" s="1">
+        <v>26</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D209" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E209" s="3">
+        <v>2</v>
+      </c>
+      <c r="F209" s="3" t="str">
+        <f>VLOOKUP(C209,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A210" s="1">
+        <v>26</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D210" s="1">
+        <v>1</v>
+      </c>
+      <c r="E210" s="3">
+        <v>2</v>
+      </c>
+      <c r="F210" s="3" t="str">
+        <f>VLOOKUP(C210,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A211" s="1">
+        <v>26</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D211" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E211" s="3">
+        <v>2</v>
+      </c>
+      <c r="F211" s="3" t="str">
+        <f>VLOOKUP(C211,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A212" s="1">
+        <v>26</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D212" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E212" s="3">
+        <v>2</v>
+      </c>
+      <c r="F212" s="3" t="str">
+        <f>VLOOKUP(C212,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A213" s="1">
+        <v>27</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D213" s="1">
+        <v>4</v>
+      </c>
+      <c r="E213" s="3">
+        <v>2</v>
+      </c>
+      <c r="F213" s="3" t="str">
+        <f>VLOOKUP(C213,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A214" s="1">
+        <v>27</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D214" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E214" s="3">
+        <v>2</v>
+      </c>
+      <c r="F214" s="3" t="str">
+        <f>VLOOKUP(C214,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A215" s="1">
+        <v>27</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D215" s="1">
+        <v>1</v>
+      </c>
+      <c r="E215" s="3">
+        <v>2</v>
+      </c>
+      <c r="F215" s="3" t="str">
+        <f>VLOOKUP(C215,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A216" s="1">
+        <v>27</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D216" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E216" s="3">
+        <v>2</v>
+      </c>
+      <c r="F216" s="3" t="str">
+        <f>VLOOKUP(C216,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A217" s="1">
+        <v>27</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D217" s="1">
+        <v>1</v>
+      </c>
+      <c r="E217" s="3">
+        <v>2</v>
+      </c>
+      <c r="F217" s="3" t="str">
+        <f>VLOOKUP(C217,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A218" s="1">
+        <v>27</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D218" s="1">
+        <v>1</v>
+      </c>
+      <c r="E218" s="3">
+        <v>2</v>
+      </c>
+      <c r="F218" s="3" t="str">
+        <f>VLOOKUP(C218,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A219" s="1">
+        <v>27</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D219" s="1">
+        <v>1</v>
+      </c>
+      <c r="E219" s="3">
+        <v>2</v>
+      </c>
+      <c r="F219" s="3" t="str">
+        <f>VLOOKUP(C219,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A220" s="1">
+        <v>27</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D220" s="1">
+        <v>1</v>
+      </c>
+      <c r="E220" s="3">
+        <v>2</v>
+      </c>
+      <c r="F220" s="3" t="str">
+        <f>VLOOKUP(C220,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A221" s="1">
+        <v>27</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D221" s="1">
+        <v>1</v>
+      </c>
+      <c r="E221" s="3">
+        <v>2</v>
+      </c>
+      <c r="F221" s="3" t="str">
+        <f>VLOOKUP(C221,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A222" s="1">
+        <v>27</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D222" s="1">
+        <v>1</v>
+      </c>
+      <c r="E222" s="3">
+        <v>2</v>
+      </c>
+      <c r="F222" s="3" t="str">
+        <f>VLOOKUP(C222,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Bread</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A223" s="1">
+        <v>27</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D223" s="1">
+        <v>1</v>
+      </c>
+      <c r="E223" s="3">
+        <v>2</v>
+      </c>
+      <c r="F223" s="3" t="str">
+        <f>VLOOKUP(C223,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A224" s="1">
+        <v>27</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D224" s="1">
+        <v>1</v>
+      </c>
+      <c r="E224" s="3">
+        <v>2</v>
+      </c>
+      <c r="F224" s="3" t="str">
+        <f>VLOOKUP(C224,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A225" s="1">
+        <v>28</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D225" s="1">
+        <v>2</v>
+      </c>
+      <c r="E225" s="3">
+        <v>2</v>
+      </c>
+      <c r="F225" s="3" t="str">
+        <f>VLOOKUP(C225,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A226" s="1">
+        <v>28</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D226" s="1">
+        <v>1</v>
+      </c>
+      <c r="E226" s="3">
+        <v>2</v>
+      </c>
+      <c r="F226" s="3" t="str">
+        <f>VLOOKUP(C226,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A227" s="1">
+        <v>28</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D227" s="1">
+        <v>1</v>
+      </c>
+      <c r="E227" s="3">
+        <v>2</v>
+      </c>
+      <c r="F227" s="3" t="str">
+        <f>VLOOKUP(C227,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Pasta</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A228" s="1">
+        <v>28</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D228" s="1">
+        <v>1</v>
+      </c>
+      <c r="E228" s="3">
+        <v>2</v>
+      </c>
+      <c r="F228" s="3" t="str">
+        <f>VLOOKUP(C228,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A229" s="1">
+        <v>28</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D229" s="1">
+        <v>1</v>
+      </c>
+      <c r="E229" s="3">
+        <v>2</v>
+      </c>
+      <c r="F229" s="3" t="str">
+        <f>VLOOKUP(C229,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A230" s="1">
+        <v>28</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D230" s="1">
+        <v>1</v>
+      </c>
+      <c r="E230" s="3">
+        <v>2</v>
+      </c>
+      <c r="F230" s="3" t="str">
+        <f>VLOOKUP(C230,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A231" s="1">
+        <v>28</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D231" s="1">
+        <v>1</v>
+      </c>
+      <c r="E231" s="3">
+        <v>2</v>
+      </c>
+      <c r="F231" s="3" t="str">
+        <f>VLOOKUP(C231,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A232" s="1">
+        <v>28</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D232" s="1">
+        <v>1</v>
+      </c>
+      <c r="E232" s="3">
+        <v>2</v>
+      </c>
+      <c r="F232" s="3" t="str">
+        <f>VLOOKUP(C232,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A233" s="1">
+        <v>28</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D233" s="1">
+        <v>1</v>
+      </c>
+      <c r="E233" s="3">
+        <v>2</v>
+      </c>
+      <c r="F233" s="3" t="str">
+        <f>VLOOKUP(C233,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A234" s="1">
+        <v>28</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D234" s="1">
+        <v>1</v>
+      </c>
+      <c r="E234" s="3">
+        <v>2</v>
+      </c>
+      <c r="F234" s="3" t="str">
+        <f>VLOOKUP(C234,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A235" s="1">
+        <v>29</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D235" s="1">
+        <v>1</v>
+      </c>
+      <c r="E235" s="3">
+        <v>2</v>
+      </c>
+      <c r="F235" s="3" t="str">
+        <f>VLOOKUP(C235,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Bread</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A236" s="1">
+        <v>29</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D236" s="1">
+        <v>6</v>
+      </c>
+      <c r="E236" s="3">
+        <v>2</v>
+      </c>
+      <c r="F236" s="3" t="str">
+        <f>VLOOKUP(C236,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Frozen</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A237" s="1">
+        <v>29</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D237" s="1">
+        <v>1</v>
+      </c>
+      <c r="E237" s="3">
+        <v>2</v>
+      </c>
+      <c r="F237" s="3" t="str">
+        <f>VLOOKUP(C237,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A238" s="1">
+        <v>30</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D238" s="1">
+        <v>4</v>
+      </c>
+      <c r="E238" s="3">
+        <v>2</v>
+      </c>
+      <c r="F238" s="3" t="str">
+        <f>VLOOKUP(C238,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A239" s="1">
+        <v>30</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D239" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E239" s="3">
+        <v>2</v>
+      </c>
+      <c r="F239" s="3" t="str">
+        <f>VLOOKUP(C239,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A240" s="1">
+        <v>30</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D240" s="1">
+        <v>1</v>
+      </c>
+      <c r="E240" s="3">
+        <v>2</v>
+      </c>
+      <c r="F240" s="3" t="str">
+        <f>VLOOKUP(C240,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A241" s="1">
+        <v>30</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D241" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E241" s="3">
+        <v>2</v>
+      </c>
+      <c r="F241" s="3" t="str">
+        <f>VLOOKUP(C241,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A242" s="1">
+        <v>30</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D242" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E242" s="3">
+        <v>2</v>
+      </c>
+      <c r="F242" s="3" t="str">
+        <f>VLOOKUP(C242,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A243" s="1">
+        <v>30</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D243" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E243" s="3">
+        <v>2</v>
+      </c>
+      <c r="F243" s="3" t="str">
+        <f>VLOOKUP(C243,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A244" s="1">
+        <v>30</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D244" s="1">
+        <v>100</v>
+      </c>
+      <c r="E244" s="3">
+        <v>2</v>
+      </c>
+      <c r="F244" s="3" t="str">
+        <f>VLOOKUP(C244,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A245" s="1">
+        <v>31</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D245" s="1">
+        <v>1</v>
+      </c>
+      <c r="E245" s="3">
+        <v>2</v>
+      </c>
+      <c r="F245" s="3" t="str">
+        <f>VLOOKUP(C245,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A246" s="1">
+        <v>31</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D246" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E246" s="3">
+        <v>2</v>
+      </c>
+      <c r="F246" s="3" t="str">
+        <f>VLOOKUP(C246,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A247" s="1">
+        <v>31</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D247" s="1">
+        <v>1</v>
+      </c>
+      <c r="E247" s="3">
+        <v>2</v>
+      </c>
+      <c r="F247" s="3" t="str">
+        <f>VLOOKUP(C247,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A248" s="1">
+        <v>31</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D248" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E248" s="3">
+        <v>2</v>
+      </c>
+      <c r="F248" s="3" t="str">
+        <f>VLOOKUP(C248,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A249" s="1">
+        <v>31</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D249" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E249" s="3">
+        <v>2</v>
+      </c>
+      <c r="F249" s="3" t="str">
+        <f>VLOOKUP(C249,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A250" s="1">
+        <v>31</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D250" s="1">
+        <v>250</v>
+      </c>
+      <c r="E250" s="3">
+        <v>2</v>
+      </c>
+      <c r="F250" s="3" t="str">
+        <f>VLOOKUP(C250,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A251" s="1">
+        <v>31</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D251" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E251" s="3">
+        <v>2</v>
+      </c>
+      <c r="F251" s="3" t="str">
+        <f>VLOOKUP(C251,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A252" s="1">
+        <v>31</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D252" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E252" s="3">
+        <v>2</v>
+      </c>
+      <c r="F252" s="3" t="str">
+        <f>VLOOKUP(C252,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A253" s="1">
+        <v>31</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D253" s="1">
+        <v>6</v>
+      </c>
+      <c r="E253" s="3">
+        <v>2</v>
+      </c>
+      <c r="F253" s="3" t="str">
+        <f>VLOOKUP(C253,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Bread</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A254" s="1">
+        <v>31</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D254" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E254" s="3">
+        <v>2</v>
+      </c>
+      <c r="F254" s="3" t="str">
+        <f>VLOOKUP(C254,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A255" s="1">
+        <v>32</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D255" s="1">
+        <v>1</v>
+      </c>
+      <c r="E255" s="3">
+        <v>2</v>
+      </c>
+      <c r="F255" s="3" t="str">
+        <f>VLOOKUP(C255,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A256" s="1">
+        <v>32</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D256" s="1">
+        <v>1</v>
+      </c>
+      <c r="E256" s="3">
+        <v>2</v>
+      </c>
+      <c r="F256" s="3" t="str">
+        <f>VLOOKUP(C256,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A257" s="1">
+        <v>32</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D257" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E257" s="3">
+        <v>2</v>
+      </c>
+      <c r="F257" s="3" t="str">
+        <f>VLOOKUP(C257,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A258" s="1">
+        <v>32</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D258" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E258" s="3">
+        <v>2</v>
+      </c>
+      <c r="F258" s="3" t="str">
+        <f>VLOOKUP(C258,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A259" s="1">
+        <v>32</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D259" s="1">
+        <v>250</v>
+      </c>
+      <c r="E259" s="3">
+        <v>2</v>
+      </c>
+      <c r="F259" s="3" t="str">
+        <f>VLOOKUP(C259,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Pasta</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A260" s="1">
+        <v>32</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D260" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E260" s="3">
+        <v>2</v>
+      </c>
+      <c r="F260" s="3" t="str">
+        <f>VLOOKUP(C260,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A261" s="1">
+        <v>32</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D261" s="1">
+        <v>1</v>
+      </c>
+      <c r="E261" s="3">
+        <v>2</v>
+      </c>
+      <c r="F261" s="3" t="str">
+        <f>VLOOKUP(C261,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A262" s="1">
+        <v>32</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D262" s="1">
+        <v>100</v>
+      </c>
+      <c r="E262" s="3">
+        <v>2</v>
+      </c>
+      <c r="F262" s="3" t="str">
+        <f>VLOOKUP(C262,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A263" s="1">
+        <v>32</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D263" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E263" s="3">
+        <v>2</v>
+      </c>
+      <c r="F263" s="3" t="str">
+        <f>VLOOKUP(C263,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A264" s="1">
+        <v>32</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D264" s="1">
+        <v>1</v>
+      </c>
+      <c r="E264" s="3">
+        <v>2</v>
+      </c>
+      <c r="F264" s="3" t="str">
+        <f>VLOOKUP(C264,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A265" s="1">
+        <v>33</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D265" s="1">
+        <v>3</v>
+      </c>
+      <c r="E265" s="3">
+        <v>2</v>
+      </c>
+      <c r="F265" s="3" t="str">
+        <f>VLOOKUP(C265,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Bread</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A266" s="1">
+        <v>33</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D266" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E266" s="3">
+        <v>2</v>
+      </c>
+      <c r="F266" s="3" t="str">
+        <f>VLOOKUP(C266,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A267" s="1">
+        <v>33</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D267" s="1">
+        <v>3</v>
+      </c>
+      <c r="E267" s="3">
+        <v>2</v>
+      </c>
+      <c r="F267" s="3" t="str">
+        <f>VLOOKUP(C267,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A268" s="1">
+        <v>33</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D268" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E268" s="3">
+        <v>2</v>
+      </c>
+      <c r="F268" s="3" t="str">
+        <f>VLOOKUP(C268,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A269" s="1">
+        <v>33</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D269" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E269" s="3">
+        <v>2</v>
+      </c>
+      <c r="F269" s="3" t="str">
+        <f>VLOOKUP(C269,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A270" s="1">
+        <v>33</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D270" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E270" s="3">
+        <v>2</v>
+      </c>
+      <c r="F270" s="3" t="str">
+        <f>VLOOKUP(C270,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F264" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39DC5D3-48DD-4434-AD5F-B09C98CDDF7C}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -3160,7 +6694,7 @@
         <v>19</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -3171,28 +6705,28 @@
         <v>20</v>
       </c>
       <c r="C2" s="1">
-        <f>COUNTIF($A$2:$A$1048576,A2)</f>
+        <f t="shared" ref="C2:C33" si="0">COUNTIF($A$2:$A$1048576,A2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C47" si="0">COUNTIF($A$2:$A$1048576,A3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
@@ -3201,10 +6735,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>166</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
@@ -3213,10 +6747,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
@@ -3237,10 +6771,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
@@ -3249,10 +6783,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
@@ -3261,10 +6795,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
@@ -3273,10 +6807,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
@@ -3285,10 +6819,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
@@ -3297,7 +6831,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>23</v>
@@ -3309,10 +6843,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
@@ -3321,10 +6855,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
@@ -3333,10 +6867,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
@@ -3345,10 +6879,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="0"/>
@@ -3357,10 +6891,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="0"/>
@@ -3369,10 +6903,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="0"/>
@@ -3381,10 +6915,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="0"/>
@@ -3393,10 +6927,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="0"/>
@@ -3405,10 +6939,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
@@ -3417,10 +6951,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
@@ -3429,10 +6963,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="0"/>
@@ -3441,10 +6975,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="0"/>
@@ -3453,10 +6987,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
@@ -3465,7 +6999,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>23</v>
@@ -3477,10 +7011,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="0"/>
@@ -3489,10 +7023,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="0"/>
@@ -3501,10 +7035,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="0"/>
@@ -3513,10 +7047,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="0"/>
@@ -3525,10 +7059,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="0"/>
@@ -3537,10 +7071,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="0"/>
@@ -3549,226 +7083,226 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C34:C65" si="1">COUNTIF($A$2:$A$1048576,A34)</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C48" s="1">
-        <f>COUNTIF($A$2:$A$1048576,A48)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C49" s="1">
-        <f>COUNTIF($A$2:$A$1048576,A49)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C50" s="1">
-        <f>COUNTIF($A$2:$A$1048576,A50)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" ref="C51:C73" si="1">COUNTIF($A$2:$A$1048576,A51)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C52" s="1">
         <f t="shared" si="1"/>
@@ -3777,7 +7311,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>25</v>
@@ -3789,10 +7323,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C54" s="1">
         <f t="shared" si="1"/>
@@ -3801,10 +7335,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C55" s="1">
         <f t="shared" si="1"/>
@@ -3813,10 +7347,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C56" s="1">
         <f t="shared" si="1"/>
@@ -3825,10 +7359,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C57" s="1">
         <f t="shared" si="1"/>
@@ -3837,10 +7371,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C58" s="1">
         <f t="shared" si="1"/>
@@ -3849,10 +7383,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C59" s="1">
         <f t="shared" si="1"/>
@@ -3861,10 +7395,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C60" s="1">
         <f t="shared" si="1"/>
@@ -3873,7 +7407,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>25</v>
@@ -3885,10 +7419,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C62" s="1">
         <f t="shared" si="1"/>
@@ -3897,10 +7431,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C63" s="1">
         <f t="shared" si="1"/>
@@ -3909,10 +7443,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>94</v>
+        <v>178</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C64" s="1">
         <f t="shared" si="1"/>
@@ -3921,10 +7455,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C65" s="1">
         <f t="shared" si="1"/>
@@ -3933,101 +7467,932 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C66:C97" si="2">COUNTIF($A$2:$A$1048576,A66)</f>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A91" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A92" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" ref="C98:C129" si="3">COUNTIF($A$2:$A$1048576,A98)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A101" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A103" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A106" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A108" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A109" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A110" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A111" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A112" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A113" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A114" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A115" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A116" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A117" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C117" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A118" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C118" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A119" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A120" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C120" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A121" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A122" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C122" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A123" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A124" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C124" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A125" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C125" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A126" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C126" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A127" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C127" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A128" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C128" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A129" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C129" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A130" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C130" s="1">
+        <f t="shared" ref="C130:C142" si="4">COUNTIF($A$2:$A$1048576,A130)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A131" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C131" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A132" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A133" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A134" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A135" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C73" s="1">
-        <f t="shared" si="1"/>
+      <c r="C135" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A136" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C136" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A137" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C137" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A138" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C138" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A139" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C139" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A140" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C140" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A141" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A142" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C142" s="1">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C134">
+    <sortCondition ref="B3:B134"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Recipe_Master.xlsx
+++ b/Recipe_Master.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dufrain-my.sharepoint.com/personal/mdixon_dufrain_co_uk/Documents/Documents/Python Scripts/ShoppingList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MichaelDixon\OneDrive - Dufrain Consulting\Documents\Python Scripts\ShoppingList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="262" documentId="13_ncr:1_{5F84BAAE-86C0-4378-88D2-7B60B2F8CD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EE992F0-C5EE-4F23-8928-CE932F2C452A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297A51FB-FE50-4945-B572-C30EB63D0C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="FG_LookUp" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Recipes!$A$1:$F$264</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Recipes!$A$1:$F$265</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="204">
   <si>
     <t>Meal_Name</t>
   </si>
@@ -616,6 +616,42 @@
   </si>
   <si>
     <t>Lemon Juice</t>
+  </si>
+  <si>
+    <t>MD_Correct_File_Check</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Chicken Ceaser Salad</t>
+  </si>
+  <si>
+    <t>Pasta Salad</t>
+  </si>
+  <si>
+    <t>Croutons</t>
+  </si>
+  <si>
+    <t>Ceaser Dressing</t>
+  </si>
+  <si>
+    <t>Prawn Vermicelli</t>
+  </si>
+  <si>
+    <t>Prawns</t>
+  </si>
+  <si>
+    <t>Vermicelli Noodles</t>
+  </si>
+  <si>
+    <t>Green Pepper</t>
+  </si>
+  <si>
+    <t>Turmeric</t>
+  </si>
+  <si>
+    <t>Chicken Tzatziki Bowl</t>
   </si>
 </sst>
 </file>
@@ -956,11 +992,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G270"/>
+  <dimension ref="A1:G307"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C270" sqref="C270"/>
+      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A307" sqref="A307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -1001,23 +1037,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>192</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="D2" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="str">
-        <f>VLOOKUP(C2,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Bread</v>
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1028,17 +1063,17 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3">
         <v>4</v>
       </c>
       <c r="F3" s="3" t="str">
         <f>VLOOKUP(C3,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Bread</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1049,17 +1084,17 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>VLOOKUP(C4,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1070,7 +1105,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1091,7 +1126,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -1112,17 +1147,17 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E7" s="3">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>VLOOKUP(C7,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -1133,38 +1168,38 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E8" s="3">
         <v>4</v>
       </c>
       <c r="F8" s="3" t="str">
         <f>VLOOKUP(C8,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Jar</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="E9" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>VLOOKUP(C9,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Pasta</v>
+        <v>Jar</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1175,17 +1210,17 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
       </c>
       <c r="F10" s="3" t="str">
         <f>VLOOKUP(C10,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Pasta</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -1196,17 +1231,17 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E11" s="3">
         <v>2</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>VLOOKUP(C11,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -1217,17 +1252,17 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3">
         <v>2</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>VLOOKUP(C12,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -1238,59 +1273,59 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
       </c>
       <c r="F13" s="3" t="str">
         <f>VLOOKUP(C13,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3" t="str">
         <f>VLOOKUP(C14,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Ready Meal</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>VLOOKUP(C15,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Pasta</v>
+        <v>Ready Meal</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -1301,17 +1336,17 @@
         <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E16" s="3">
         <v>2</v>
       </c>
       <c r="F16" s="3" t="str">
         <f>VLOOKUP(C16,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Jar</v>
+        <v>Pasta</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -1322,17 +1357,17 @@
         <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="D17" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>VLOOKUP(C17,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Jar</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -1343,17 +1378,17 @@
         <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>182</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="E18" s="3">
         <v>2</v>
       </c>
       <c r="F18" s="3" t="str">
         <f>VLOOKUP(C18,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -1364,17 +1399,17 @@
         <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="3">
         <v>2</v>
       </c>
       <c r="F19" s="3" t="str">
         <f>VLOOKUP(C19,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -1385,10 +1420,10 @@
         <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
@@ -1406,7 +1441,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="D21" s="1">
         <v>0.1</v>
@@ -1427,17 +1462,17 @@
         <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D22" s="1">
-        <v>150</v>
+        <v>0.1</v>
       </c>
       <c r="E22" s="3">
         <v>2</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>VLOOKUP(C22,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -1448,17 +1483,17 @@
         <v>28</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D23" s="1">
-        <v>0.1</v>
+        <v>150</v>
       </c>
       <c r="E23" s="3">
         <v>2</v>
       </c>
       <c r="F23" s="3" t="str">
         <f>VLOOKUP(C23,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -1469,7 +1504,7 @@
         <v>28</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="D24" s="1">
         <v>0.1</v>
@@ -1484,23 +1519,23 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="D25" s="1">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="E25" s="3">
         <v>2</v>
       </c>
       <c r="F25" s="3" t="str">
         <f>VLOOKUP(C25,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -1511,7 +1546,7 @@
         <v>114</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
@@ -1521,7 +1556,7 @@
       </c>
       <c r="F26" s="3" t="str">
         <f>VLOOKUP(C26,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -1532,10 +1567,10 @@
         <v>114</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="3">
         <v>2</v>
@@ -1553,7 +1588,7 @@
         <v>114</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -1568,23 +1603,23 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
       <c r="E29" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F29" s="3" t="str">
         <f>VLOOKUP(C29,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -1595,7 +1630,7 @@
         <v>35</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -1605,7 +1640,7 @@
       </c>
       <c r="F30" s="3" t="str">
         <f>VLOOKUP(C30,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -1616,10 +1651,10 @@
         <v>35</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" s="3">
         <v>6</v>
@@ -1637,7 +1672,7 @@
         <v>35</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" s="1">
         <v>2</v>
@@ -1658,17 +1693,17 @@
         <v>35</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" s="1">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="E33" s="3">
         <v>6</v>
       </c>
       <c r="F33" s="3" t="str">
         <f>VLOOKUP(C33,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Pasta</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -1679,17 +1714,17 @@
         <v>35</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" s="1">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E34" s="3">
         <v>6</v>
       </c>
       <c r="F34" s="3" t="str">
         <f>VLOOKUP(C34,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Pasta</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -1700,17 +1735,17 @@
         <v>35</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" s="3">
         <v>6</v>
       </c>
       <c r="F35" s="3" t="str">
         <f>VLOOKUP(C35,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Jar</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -1721,38 +1756,38 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="3">
         <v>6</v>
       </c>
       <c r="F36" s="3" t="str">
         <f>VLOOKUP(C36,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Jar</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="D37" s="1">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="E37" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F37" s="3" t="str">
         <f>VLOOKUP(C37,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
@@ -1763,17 +1798,17 @@
         <v>43</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="D38" s="1">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
       </c>
       <c r="F38" s="3" t="str">
         <f>VLOOKUP(C38,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Bread</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -1784,17 +1819,17 @@
         <v>43</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D39" s="1">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="E39" s="3">
         <v>2</v>
       </c>
       <c r="F39" s="3" t="str">
         <f>VLOOKUP(C39,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Bread</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -1805,7 +1840,7 @@
         <v>43</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D40" s="1">
         <v>0.5</v>
@@ -1815,28 +1850,28 @@
       </c>
       <c r="F40" s="3" t="str">
         <f>VLOOKUP(C40,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D41" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E41" s="3">
         <v>2</v>
       </c>
       <c r="F41" s="3" t="str">
         <f>VLOOKUP(C41,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -1847,17 +1882,17 @@
         <v>47</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" s="3">
         <v>2</v>
       </c>
       <c r="F42" s="3" t="str">
         <f>VLOOKUP(C42,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
@@ -1868,7 +1903,7 @@
         <v>47</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
@@ -1878,7 +1913,7 @@
       </c>
       <c r="F43" s="3" t="str">
         <f>VLOOKUP(C43,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Frozen</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
@@ -1889,17 +1924,17 @@
         <v>47</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D44" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
       </c>
       <c r="F44" s="3" t="str">
         <f>VLOOKUP(C44,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Frozen</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
@@ -1910,17 +1945,17 @@
         <v>47</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D45" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E45" s="3">
         <v>2</v>
       </c>
       <c r="F45" s="3" t="str">
         <f>VLOOKUP(C45,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Pasta</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
@@ -1931,17 +1966,17 @@
         <v>47</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D46" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E46" s="3">
         <v>2</v>
       </c>
       <c r="F46" s="3" t="str">
         <f>VLOOKUP(C46,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Pasta</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
@@ -1952,38 +1987,38 @@
         <v>47</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D47" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E47" s="3">
         <v>2</v>
       </c>
       <c r="F47" s="3" t="str">
         <f>VLOOKUP(C47,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D48" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="E48" s="3">
         <v>2</v>
       </c>
       <c r="F48" s="3" t="str">
         <f>VLOOKUP(C48,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Pasta</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
@@ -1994,17 +2029,17 @@
         <v>55</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D49" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E49" s="3">
         <v>2</v>
       </c>
       <c r="F49" s="3" t="str">
         <f>VLOOKUP(C49,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Jar</v>
+        <v>Pasta</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
@@ -2015,17 +2050,17 @@
         <v>55</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D50" s="1">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="E50" s="3">
         <v>2</v>
       </c>
       <c r="F50" s="3" t="str">
         <f>VLOOKUP(C50,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Jar</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
@@ -2036,7 +2071,7 @@
         <v>55</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D51" s="1">
         <v>0.25</v>
@@ -2051,23 +2086,23 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D52" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E52" s="3">
         <v>2</v>
       </c>
       <c r="F52" s="3" t="str">
         <f>VLOOKUP(C52,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Bread</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
@@ -2078,17 +2113,17 @@
         <v>60</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D53" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E53" s="3">
         <v>2</v>
       </c>
       <c r="F53" s="3" t="str">
         <f>VLOOKUP(C53,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Bread</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
@@ -2099,17 +2134,17 @@
         <v>60</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D54" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" s="3">
         <v>2</v>
       </c>
       <c r="F54" s="3" t="str">
         <f>VLOOKUP(C54,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
@@ -2120,7 +2155,7 @@
         <v>60</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -2141,7 +2176,7 @@
         <v>60</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -2162,7 +2197,7 @@
         <v>60</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
@@ -2177,23 +2212,23 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D58" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58" s="3">
         <v>2</v>
       </c>
       <c r="F58" s="3" t="str">
         <f>VLOOKUP(C58,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
@@ -2204,17 +2239,17 @@
         <v>66</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="D59" s="1">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E59" s="3">
         <v>2</v>
       </c>
       <c r="F59" s="3" t="str">
         <f>VLOOKUP(C59,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
@@ -2225,7 +2260,7 @@
         <v>66</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D60" s="1">
         <v>0.5</v>
@@ -2235,7 +2270,7 @@
       </c>
       <c r="F60" s="3" t="str">
         <f>VLOOKUP(C60,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
@@ -2246,7 +2281,7 @@
         <v>66</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D61" s="1">
         <v>0.5</v>
@@ -2256,7 +2291,7 @@
       </c>
       <c r="F61" s="3" t="str">
         <f>VLOOKUP(C61,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
@@ -2267,7 +2302,7 @@
         <v>66</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="D62" s="1">
         <v>0.5</v>
@@ -2288,7 +2323,7 @@
         <v>66</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="D63" s="1">
         <v>0.5</v>
@@ -2309,7 +2344,7 @@
         <v>66</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D64" s="1">
         <v>0.5</v>
@@ -2330,7 +2365,7 @@
         <v>66</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D65" s="1">
         <v>0.5</v>
@@ -2345,23 +2380,23 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="D66" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E66" s="3">
         <v>2</v>
       </c>
       <c r="F66" s="3" t="str">
         <f>VLOOKUP(C66,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
@@ -2372,17 +2407,17 @@
         <v>72</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D67" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" s="3">
         <v>2</v>
       </c>
       <c r="F67" s="3" t="str">
         <f>VLOOKUP(C67,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Jar</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
@@ -2393,7 +2428,7 @@
         <v>72</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
@@ -2403,7 +2438,7 @@
       </c>
       <c r="F68" s="3" t="str">
         <f>VLOOKUP(C68,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Jar</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
@@ -2414,17 +2449,17 @@
         <v>72</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="D69" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E69" s="3">
         <v>2</v>
       </c>
       <c r="F69" s="3" t="str">
         <f>VLOOKUP(C69,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
@@ -2435,7 +2470,7 @@
         <v>72</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D70" s="1">
         <v>0.5</v>
@@ -2445,7 +2480,7 @@
       </c>
       <c r="F70" s="3" t="str">
         <f>VLOOKUP(C70,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
@@ -2456,7 +2491,7 @@
         <v>72</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D71" s="1">
         <v>0.5</v>
@@ -2471,16 +2506,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D72" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E72" s="3">
         <v>2</v>
@@ -2498,7 +2533,7 @@
         <v>76</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D73" s="1">
         <v>1</v>
@@ -2508,7 +2543,7 @@
       </c>
       <c r="F73" s="3" t="str">
         <f>VLOOKUP(C73,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
@@ -2519,7 +2554,7 @@
         <v>76</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D74" s="1">
         <v>1</v>
@@ -2529,7 +2564,7 @@
       </c>
       <c r="F74" s="3" t="str">
         <f>VLOOKUP(C74,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
@@ -2540,7 +2575,7 @@
         <v>76</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="D75" s="1">
         <v>1</v>
@@ -2561,38 +2596,38 @@
         <v>76</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D76" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E76" s="3">
         <v>2</v>
       </c>
       <c r="F76" s="3" t="str">
         <f>VLOOKUP(C76,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Bread</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="D77" s="1">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="E77" s="3">
         <v>2</v>
       </c>
       <c r="F77" s="3" t="str">
         <f>VLOOKUP(C77,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Bread</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
@@ -2603,17 +2638,17 @@
         <v>80</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="D78" s="1">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="E78" s="3">
         <v>2</v>
       </c>
       <c r="F78" s="3" t="str">
         <f>VLOOKUP(C78,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Pasta</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
@@ -2624,17 +2659,17 @@
         <v>80</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D79" s="1">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="E79" s="3">
         <v>2</v>
       </c>
       <c r="F79" s="3" t="str">
         <f>VLOOKUP(C79,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Pasta</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
@@ -2645,17 +2680,17 @@
         <v>80</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="D80" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="E80" s="3">
         <v>2</v>
       </c>
       <c r="F80" s="3" t="str">
         <f>VLOOKUP(C80,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
@@ -2666,10 +2701,10 @@
         <v>80</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="D81" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E81" s="3">
         <v>2</v>
@@ -2687,17 +2722,17 @@
         <v>80</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D82" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E82" s="3">
         <v>2</v>
       </c>
       <c r="F82" s="3" t="str">
         <f>VLOOKUP(C82,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Frozen</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
@@ -2708,38 +2743,38 @@
         <v>80</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D83" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="E83" s="3">
         <v>2</v>
       </c>
       <c r="F83" s="3" t="str">
         <f>VLOOKUP(C83,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Frozen</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D84" s="1">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="E84" s="3">
         <v>2</v>
       </c>
       <c r="F84" s="3" t="str">
         <f>VLOOKUP(C84,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Pasta</v>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
@@ -2750,17 +2785,17 @@
         <v>82</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="D85" s="1">
-        <v>0.1</v>
+        <v>300</v>
       </c>
       <c r="E85" s="3">
         <v>2</v>
       </c>
       <c r="F85" s="3" t="str">
         <f>VLOOKUP(C85,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Pasta</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
@@ -2771,17 +2806,17 @@
         <v>82</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D86" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E86" s="3">
         <v>2</v>
       </c>
       <c r="F86" s="3" t="str">
         <f>VLOOKUP(C86,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
@@ -2792,17 +2827,17 @@
         <v>82</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D87" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E87" s="3">
         <v>2</v>
       </c>
       <c r="F87" s="3" t="str">
         <f>VLOOKUP(C87,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
@@ -2813,7 +2848,7 @@
         <v>82</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D88" s="1">
         <v>0.1</v>
@@ -2834,17 +2869,17 @@
         <v>82</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D89" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E89" s="3">
         <v>2</v>
       </c>
       <c r="F89" s="3" t="str">
         <f>VLOOKUP(C89,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Frozen</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
@@ -2855,17 +2890,17 @@
         <v>82</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D90" s="1">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E90" s="3">
         <v>2</v>
       </c>
       <c r="F90" s="3" t="str">
         <f>VLOOKUP(C90,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Frozen</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
@@ -2876,10 +2911,10 @@
         <v>82</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D91" s="1">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E91" s="3">
         <v>2</v>
@@ -2897,17 +2932,17 @@
         <v>82</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D92" s="1">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="E92" s="3">
         <v>2</v>
       </c>
       <c r="F92" s="3" t="str">
         <f>VLOOKUP(C92,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
@@ -2918,17 +2953,17 @@
         <v>82</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D93" s="1">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="E93" s="3">
         <v>2</v>
       </c>
       <c r="F93" s="3" t="str">
         <f>VLOOKUP(C93,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
@@ -2939,7 +2974,7 @@
         <v>82</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="D94" s="1">
         <v>0.1</v>
@@ -2960,7 +2995,7 @@
         <v>82</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D95" s="1">
         <v>0.1</v>
@@ -2981,7 +3016,7 @@
         <v>82</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="D96" s="1">
         <v>0.1</v>
@@ -2991,28 +3026,28 @@
       </c>
       <c r="F96" s="3" t="str">
         <f>VLOOKUP(C96,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="D97" s="1">
-        <v>300</v>
+        <v>0.1</v>
       </c>
       <c r="E97" s="3">
         <v>2</v>
       </c>
       <c r="F97" s="3" t="str">
         <f>VLOOKUP(C97,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Pasta</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
@@ -3023,17 +3058,17 @@
         <v>87</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="D98" s="1">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E98" s="3">
         <v>2</v>
       </c>
       <c r="F98" s="3" t="str">
         <f>VLOOKUP(C98,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Pasta</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
@@ -3044,7 +3079,7 @@
         <v>87</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="D99" s="1">
         <v>1</v>
@@ -3054,7 +3089,7 @@
       </c>
       <c r="F99" s="3" t="str">
         <f>VLOOKUP(C99,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
@@ -3065,17 +3100,17 @@
         <v>87</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="D100" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E100" s="3">
         <v>2</v>
       </c>
       <c r="F100" s="3" t="str">
         <f>VLOOKUP(C100,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
@@ -3086,10 +3121,10 @@
         <v>87</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D101" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E101" s="3">
         <v>2</v>
@@ -3107,7 +3142,7 @@
         <v>87</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D102" s="1">
         <v>0.1</v>
@@ -3128,7 +3163,7 @@
         <v>87</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D103" s="1">
         <v>0.1</v>
@@ -3149,10 +3184,10 @@
         <v>87</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E104" s="3">
         <v>2</v>
@@ -3170,17 +3205,17 @@
         <v>87</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D105" s="1">
-        <v>150</v>
+        <v>0.2</v>
       </c>
       <c r="E105" s="3">
         <v>2</v>
       </c>
       <c r="F105" s="3" t="str">
         <f>VLOOKUP(C105,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
@@ -3191,38 +3226,38 @@
         <v>87</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D106" s="1">
-        <v>0.1</v>
+        <v>150</v>
       </c>
       <c r="E106" s="3">
         <v>2</v>
       </c>
       <c r="F106" s="3" t="str">
         <f>VLOOKUP(C106,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="D107" s="1">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="E107" s="3">
         <v>2</v>
       </c>
       <c r="F107" s="3" t="str">
         <f>VLOOKUP(C107,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
@@ -3233,17 +3268,17 @@
         <v>95</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="D108" s="1">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="E108" s="3">
         <v>2</v>
       </c>
       <c r="F108" s="3" t="str">
         <f>VLOOKUP(C108,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Pasta</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
@@ -3254,17 +3289,17 @@
         <v>95</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D109" s="1">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E109" s="3">
         <v>2</v>
       </c>
       <c r="F109" s="3" t="str">
         <f>VLOOKUP(C109,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Pasta</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
@@ -3275,7 +3310,7 @@
         <v>95</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D110" s="1">
         <v>1</v>
@@ -3285,7 +3320,7 @@
       </c>
       <c r="F110" s="3" t="str">
         <f>VLOOKUP(C110,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
@@ -3296,7 +3331,7 @@
         <v>95</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="D111" s="1">
         <v>1</v>
@@ -3317,7 +3352,7 @@
         <v>95</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="D112" s="1">
         <v>1</v>
@@ -3338,17 +3373,17 @@
         <v>95</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D113" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E113" s="3">
         <v>2</v>
       </c>
       <c r="F113" s="3" t="str">
         <f>VLOOKUP(C113,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
@@ -3359,17 +3394,17 @@
         <v>95</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="D114" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E114" s="3">
         <v>2</v>
       </c>
       <c r="F114" s="3" t="str">
         <f>VLOOKUP(C114,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
@@ -3380,7 +3415,7 @@
         <v>95</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D115" s="1">
         <v>0.2</v>
@@ -3390,28 +3425,28 @@
       </c>
       <c r="F115" s="3" t="str">
         <f>VLOOKUP(C115,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="D116" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="E116" s="3">
         <v>2</v>
       </c>
       <c r="F116" s="3" t="str">
         <f>VLOOKUP(C116,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
@@ -3422,17 +3457,17 @@
         <v>100</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="D117" s="1">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="E117" s="3">
         <v>2</v>
       </c>
       <c r="F117" s="3" t="str">
         <f>VLOOKUP(C117,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
@@ -3443,10 +3478,10 @@
         <v>100</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="D118" s="1">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E118" s="3">
         <v>2</v>
@@ -3464,7 +3499,7 @@
         <v>100</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="D119" s="1">
         <v>0.25</v>
@@ -3474,7 +3509,7 @@
       </c>
       <c r="F119" s="3" t="str">
         <f>VLOOKUP(C119,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
@@ -3485,17 +3520,17 @@
         <v>100</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D120" s="1">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="E120" s="3">
         <v>2</v>
       </c>
       <c r="F120" s="3" t="str">
         <f>VLOOKUP(C120,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
@@ -3506,10 +3541,10 @@
         <v>100</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D121" s="1">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="E121" s="3">
         <v>2</v>
@@ -3527,38 +3562,38 @@
         <v>100</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="D122" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E122" s="3">
         <v>2</v>
       </c>
       <c r="F122" s="3" t="str">
         <f>VLOOKUP(C122,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D123" s="1">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E123" s="3">
         <v>2</v>
       </c>
       <c r="F123" s="3" t="str">
         <f>VLOOKUP(C123,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
@@ -3569,7 +3604,7 @@
         <v>105</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="D124" s="1">
         <v>1</v>
@@ -3579,7 +3614,7 @@
       </c>
       <c r="F124" s="3" t="str">
         <f>VLOOKUP(C124,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
@@ -3590,17 +3625,17 @@
         <v>105</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="D125" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E125" s="3">
         <v>2</v>
       </c>
       <c r="F125" s="3" t="str">
         <f>VLOOKUP(C125,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
@@ -3611,7 +3646,7 @@
         <v>105</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D126" s="1">
         <v>0.1</v>
@@ -3621,7 +3656,7 @@
       </c>
       <c r="F126" s="3" t="str">
         <f>VLOOKUP(C126,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
@@ -3632,7 +3667,7 @@
         <v>105</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D127" s="1">
         <v>0.1</v>
@@ -3642,7 +3677,7 @@
       </c>
       <c r="F127" s="3" t="str">
         <f>VLOOKUP(C127,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
@@ -3653,10 +3688,10 @@
         <v>105</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="D128" s="1">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="E128" s="3">
         <v>2</v>
@@ -3674,17 +3709,17 @@
         <v>105</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="D129" s="1">
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="E129" s="3">
         <v>2</v>
       </c>
       <c r="F129" s="3" t="str">
         <f>VLOOKUP(C129,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
@@ -3695,10 +3730,10 @@
         <v>105</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D130" s="1">
-        <v>200</v>
+        <v>0.25</v>
       </c>
       <c r="E130" s="3">
         <v>2</v>
@@ -3716,10 +3751,10 @@
         <v>105</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="D131" s="1">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="E131" s="3">
         <v>2</v>
@@ -3737,38 +3772,38 @@
         <v>105</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="D132" s="1">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="E132" s="3">
         <v>2</v>
       </c>
       <c r="F132" s="3" t="str">
         <f>VLOOKUP(C132,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
-        <v>20</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>109</v>
+        <v>19</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="D133" s="1">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="E133" s="3">
         <v>2</v>
       </c>
       <c r="F133" s="3" t="str">
         <f>VLOOKUP(C133,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
@@ -3779,17 +3814,17 @@
         <v>108</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D134" s="1">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="E134" s="3">
         <v>2</v>
       </c>
       <c r="F134" s="3" t="str">
         <f>VLOOKUP(C134,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
@@ -3799,8 +3834,8 @@
       <c r="B135" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>101</v>
+      <c r="C135" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="D135" s="1">
         <v>0.1</v>
@@ -3810,7 +3845,7 @@
       </c>
       <c r="F135" s="3" t="str">
         <f>VLOOKUP(C135,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
@@ -3821,7 +3856,7 @@
         <v>108</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D136" s="1">
         <v>0.1</v>
@@ -3831,7 +3866,7 @@
       </c>
       <c r="F136" s="3" t="str">
         <f>VLOOKUP(C136,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
@@ -3841,18 +3876,18 @@
       <c r="B137" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C137" s="3" t="s">
-        <v>111</v>
+      <c r="C137" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="D137" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E137" s="3">
         <v>2</v>
       </c>
       <c r="F137" s="3" t="str">
         <f>VLOOKUP(C137,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Jar</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
@@ -3863,10 +3898,10 @@
         <v>108</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D138" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E138" s="3">
         <v>2</v>
@@ -3884,17 +3919,17 @@
         <v>108</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="D139" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E139" s="3">
         <v>2</v>
       </c>
       <c r="F139" s="3" t="str">
         <f>VLOOKUP(C139,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Jar</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
@@ -3905,7 +3940,7 @@
         <v>108</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="D140" s="1">
         <v>1</v>
@@ -3915,7 +3950,7 @@
       </c>
       <c r="F140" s="3" t="str">
         <f>VLOOKUP(C140,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
@@ -3926,17 +3961,17 @@
         <v>108</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D141" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E141" s="3">
         <v>2</v>
       </c>
       <c r="F141" s="3" t="str">
         <f>VLOOKUP(C141,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Jar</v>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
@@ -3947,17 +3982,17 @@
         <v>108</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="D142" s="1">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E142" s="3">
         <v>2</v>
       </c>
       <c r="F142" s="3" t="str">
         <f>VLOOKUP(C142,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Jar</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
@@ -3968,17 +4003,17 @@
         <v>108</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="D143" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E143" s="3">
         <v>2</v>
       </c>
       <c r="F143" s="3" t="str">
         <f>VLOOKUP(C143,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
@@ -3989,7 +4024,7 @@
         <v>108</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="D144" s="1">
         <v>0.1</v>
@@ -4004,23 +4039,23 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
-        <v>21</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D145" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E145" s="3">
         <v>2</v>
       </c>
       <c r="F145" s="3" t="str">
         <f>VLOOKUP(C145,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
@@ -4031,7 +4066,7 @@
         <v>117</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D146" s="1">
         <v>1</v>
@@ -4052,7 +4087,7 @@
         <v>117</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D147" s="1">
         <v>1</v>
@@ -4073,17 +4108,17 @@
         <v>117</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="D148" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E148" s="3">
         <v>2</v>
       </c>
       <c r="F148" s="3" t="str">
         <f>VLOOKUP(C148,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
@@ -4094,10 +4129,10 @@
         <v>117</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="D149" s="1">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="E149" s="3">
         <v>2</v>
@@ -4115,7 +4150,7 @@
         <v>117</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D150" s="1">
         <v>0.1</v>
@@ -4136,17 +4171,17 @@
         <v>117</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D151" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="E151" s="3">
         <v>2</v>
       </c>
       <c r="F151" s="3" t="str">
         <f>VLOOKUP(C151,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Jar</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.15">
@@ -4157,17 +4192,17 @@
         <v>117</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D152" s="1">
-        <v>120</v>
+        <v>0.25</v>
       </c>
       <c r="E152" s="3">
         <v>2</v>
       </c>
       <c r="F152" s="3" t="str">
         <f>VLOOKUP(C152,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Pasta</v>
+        <v>Jar</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.15">
@@ -4178,17 +4213,17 @@
         <v>117</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D153" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="E153" s="3">
         <v>2</v>
       </c>
       <c r="F153" s="3" t="str">
         <f>VLOOKUP(C153,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Drink</v>
+        <v>Pasta</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.15">
@@ -4198,18 +4233,18 @@
       <c r="B154" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>92</v>
+      <c r="C154" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="D154" s="1">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="E154" s="3">
         <v>2</v>
       </c>
       <c r="F154" s="3" t="str">
         <f>VLOOKUP(C154,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Drink</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
@@ -4219,11 +4254,11 @@
       <c r="B155" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C155" s="3" t="s">
-        <v>133</v>
+      <c r="C155" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D155" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E155" s="3">
         <v>2</v>
@@ -4241,10 +4276,10 @@
         <v>117</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D156" s="1">
-        <v>0.1</v>
+        <v>30</v>
       </c>
       <c r="E156" s="3">
         <v>2</v>
@@ -4262,10 +4297,10 @@
         <v>117</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D157" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E157" s="3">
         <v>2</v>
@@ -4277,23 +4312,23 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
-        <v>22</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>113</v>
+        <v>21</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D158" s="1">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="E158" s="3">
         <v>2</v>
       </c>
       <c r="F158" s="3" t="str">
         <f>VLOOKUP(C158,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Pasta</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.15">
@@ -4304,17 +4339,17 @@
         <v>113</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="D159" s="1">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E159" s="3">
         <v>2</v>
       </c>
       <c r="F159" s="3" t="str">
         <f>VLOOKUP(C159,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Pasta</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.15">
@@ -4325,7 +4360,7 @@
         <v>113</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="D160" s="1">
         <v>1</v>
@@ -4346,7 +4381,7 @@
         <v>113</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="D161" s="1">
         <v>1</v>
@@ -4367,7 +4402,7 @@
         <v>113</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="D162" s="1">
         <v>1</v>
@@ -4377,7 +4412,7 @@
       </c>
       <c r="F162" s="3" t="str">
         <f>VLOOKUP(C162,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Jar</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.15">
@@ -4388,7 +4423,7 @@
         <v>113</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D163" s="1">
         <v>1</v>
@@ -4409,17 +4444,17 @@
         <v>113</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D164" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E164" s="3">
         <v>2</v>
       </c>
       <c r="F164" s="3" t="str">
         <f>VLOOKUP(C164,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Jar</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.15">
@@ -4430,17 +4465,17 @@
         <v>113</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D165" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E165" s="3">
         <v>2</v>
       </c>
       <c r="F165" s="3" t="str">
         <f>VLOOKUP(C165,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.15">
@@ -4451,7 +4486,7 @@
         <v>113</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
@@ -4461,7 +4496,7 @@
       </c>
       <c r="F166" s="3" t="str">
         <f>VLOOKUP(C166,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.15">
@@ -4472,38 +4507,38 @@
         <v>113</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D167" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E167" s="3">
         <v>2</v>
       </c>
       <c r="F167" s="3" t="str">
         <f>VLOOKUP(C167,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
-        <v>23</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="D168" s="1">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="E168" s="3">
         <v>2</v>
       </c>
       <c r="F168" s="3" t="str">
         <f>VLOOKUP(C168,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Bread</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.15">
@@ -4514,17 +4549,17 @@
         <v>136</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="D169" s="1">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E169" s="3">
         <v>2</v>
       </c>
       <c r="F169" s="3" t="str">
         <f>VLOOKUP(C169,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Bread</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.15">
@@ -4535,17 +4570,17 @@
         <v>136</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="D170" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E170" s="3">
         <v>2</v>
       </c>
       <c r="F170" s="3" t="str">
         <f>VLOOKUP(C170,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.15">
@@ -4556,7 +4591,7 @@
         <v>136</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D171" s="1">
         <v>0.1</v>
@@ -4577,17 +4612,17 @@
         <v>136</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D172" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="E172" s="3">
         <v>2</v>
       </c>
       <c r="F172" s="3" t="str">
         <f>VLOOKUP(C172,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.15">
@@ -4598,17 +4633,17 @@
         <v>136</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D173" s="1">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E173" s="3">
         <v>2</v>
       </c>
       <c r="F173" s="3" t="str">
         <f>VLOOKUP(C173,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Jar</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.15">
@@ -4619,17 +4654,17 @@
         <v>136</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D174" s="1">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E174" s="3">
         <v>2</v>
       </c>
       <c r="F174" s="3" t="str">
         <f>VLOOKUP(C174,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Jar</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.15">
@@ -4640,38 +4675,38 @@
         <v>136</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="D175" s="1">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="E175" s="3">
         <v>2</v>
       </c>
       <c r="F175" s="3" t="str">
         <f>VLOOKUP(C175,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Jar</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="D176" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="E176" s="3">
         <v>2</v>
       </c>
       <c r="F176" s="3" t="str">
         <f>VLOOKUP(C176,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Jar</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.15">
@@ -4682,10 +4717,10 @@
         <v>140</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="D177" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E177" s="3">
         <v>2</v>
@@ -4703,17 +4738,17 @@
         <v>140</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D178" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E178" s="3">
         <v>2</v>
       </c>
       <c r="F178" s="3" t="str">
         <f>VLOOKUP(C178,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.15">
@@ -4724,10 +4759,10 @@
         <v>140</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D179" s="1">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E179" s="3">
         <v>2</v>
@@ -4745,7 +4780,7 @@
         <v>140</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D180" s="1">
         <v>1</v>
@@ -4763,16 +4798,16 @@
         <v>24</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D181" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E181" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F181" s="3" t="str">
         <f>VLOOKUP(C181,FG_LookUp!$A$2:$B$1048576,2,0)</f>
@@ -4787,17 +4822,17 @@
         <v>142</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="D182" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E182" s="3">
         <v>4</v>
       </c>
       <c r="F182" s="3" t="str">
         <f>VLOOKUP(C182,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.15">
@@ -4808,7 +4843,7 @@
         <v>142</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D183" s="1">
         <v>1</v>
@@ -4818,7 +4853,7 @@
       </c>
       <c r="F183" s="3" t="str">
         <f>VLOOKUP(C183,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.15">
@@ -4829,17 +4864,17 @@
         <v>142</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D184" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E184" s="3">
         <v>4</v>
       </c>
       <c r="F184" s="3" t="str">
         <f>VLOOKUP(C184,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.15">
@@ -4850,17 +4885,17 @@
         <v>142</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D185" s="1">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="E185" s="3">
         <v>4</v>
       </c>
       <c r="F185" s="3" t="str">
         <f>VLOOKUP(C185,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Bread</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.15">
@@ -4871,17 +4906,17 @@
         <v>142</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>145</v>
+        <v>4</v>
       </c>
       <c r="D186" s="1">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="E186" s="3">
         <v>4</v>
       </c>
       <c r="F186" s="3" t="str">
         <f>VLOOKUP(C186,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Bread</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.15">
@@ -4892,38 +4927,38 @@
         <v>142</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D187" s="1">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E187" s="3">
         <v>4</v>
       </c>
       <c r="F187" s="3" t="str">
         <f>VLOOKUP(C187,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="D188" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="E188" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F188" s="3" t="str">
         <f>VLOOKUP(C188,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Veg</v>
       </c>
       <c r="G188" s="1"/>
     </row>
@@ -4935,17 +4970,17 @@
         <v>150</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="D189" s="1">
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="E189" s="3">
         <v>2</v>
       </c>
       <c r="F189" s="3" t="str">
         <f>VLOOKUP(C189,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Meat</v>
       </c>
       <c r="G189" s="1"/>
     </row>
@@ -4957,17 +4992,17 @@
         <v>150</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="D190" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E190" s="3">
         <v>2</v>
       </c>
       <c r="F190" s="3" t="str">
         <f>VLOOKUP(C190,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Veg</v>
       </c>
       <c r="G190" s="1"/>
     </row>
@@ -4979,17 +5014,17 @@
         <v>150</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D191" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E191" s="3">
         <v>2</v>
       </c>
       <c r="F191" s="3" t="str">
         <f>VLOOKUP(C191,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Condiment</v>
       </c>
       <c r="G191" s="1"/>
     </row>
@@ -5001,7 +5036,7 @@
         <v>150</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D192" s="1">
         <v>1</v>
@@ -5011,7 +5046,7 @@
       </c>
       <c r="F192" s="3" t="str">
         <f>VLOOKUP(C192,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Meat</v>
       </c>
       <c r="G192" s="1"/>
     </row>
@@ -5023,7 +5058,7 @@
         <v>150</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D193" s="1">
         <v>1</v>
@@ -5045,7 +5080,7 @@
         <v>150</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="D194" s="1">
         <v>1</v>
@@ -5067,7 +5102,7 @@
         <v>150</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D195" s="1">
         <v>1</v>
@@ -5089,17 +5124,17 @@
         <v>150</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="D196" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E196" s="3">
         <v>2</v>
       </c>
       <c r="F196" s="3" t="str">
         <f>VLOOKUP(C196,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Veg</v>
       </c>
       <c r="G196" s="1"/>
     </row>
@@ -5111,7 +5146,7 @@
         <v>150</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="D197" s="1">
         <v>0.1</v>
@@ -5121,7 +5156,7 @@
       </c>
       <c r="F197" s="3" t="str">
         <f>VLOOKUP(C197,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Condiment</v>
       </c>
       <c r="G197" s="1"/>
     </row>
@@ -5133,7 +5168,7 @@
         <v>150</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D198" s="1">
         <v>0.1</v>
@@ -5143,7 +5178,7 @@
       </c>
       <c r="F198" s="3" t="str">
         <f>VLOOKUP(C198,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Dairy</v>
       </c>
       <c r="G198" s="1"/>
     </row>
@@ -5155,7 +5190,7 @@
         <v>150</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="D199" s="1">
         <v>0.1</v>
@@ -5177,7 +5212,7 @@
         <v>150</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D200" s="1">
         <v>0.1</v>
@@ -5199,7 +5234,7 @@
         <v>150</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="D201" s="1">
         <v>0.1</v>
@@ -5221,7 +5256,7 @@
         <v>150</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D202" s="1">
         <v>0.1</v>
@@ -5243,7 +5278,7 @@
         <v>150</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D203" s="1">
         <v>0.1</v>
@@ -5259,23 +5294,23 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D204" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E204" s="3">
         <v>2</v>
       </c>
       <c r="F204" s="3" t="str">
         <f>VLOOKUP(C204,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.15">
@@ -5286,17 +5321,17 @@
         <v>156</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D205" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E205" s="3">
         <v>2</v>
       </c>
       <c r="F205" s="3" t="str">
         <f>VLOOKUP(C205,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.15">
@@ -5307,10 +5342,10 @@
         <v>156</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="D206" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="E206" s="3">
         <v>2</v>
@@ -5328,10 +5363,10 @@
         <v>156</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D207" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E207" s="3">
         <v>2</v>
@@ -5349,17 +5384,17 @@
         <v>156</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="D208" s="1">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="E208" s="3">
         <v>2</v>
       </c>
       <c r="F208" s="3" t="str">
         <f>VLOOKUP(C208,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.15">
@@ -5370,7 +5405,7 @@
         <v>156</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D209" s="1">
         <v>0.1</v>
@@ -5380,7 +5415,7 @@
       </c>
       <c r="F209" s="3" t="str">
         <f>VLOOKUP(C209,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.15">
@@ -5391,17 +5426,17 @@
         <v>156</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="D210" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E210" s="3">
         <v>2</v>
       </c>
       <c r="F210" s="3" t="str">
         <f>VLOOKUP(C210,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.15">
@@ -5412,10 +5447,10 @@
         <v>156</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="D211" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E211" s="3">
         <v>2</v>
@@ -5433,7 +5468,7 @@
         <v>156</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="D212" s="1">
         <v>0.1</v>
@@ -5443,28 +5478,28 @@
       </c>
       <c r="F212" s="3" t="str">
         <f>VLOOKUP(C212,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D213" s="1">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="E213" s="3">
         <v>2</v>
       </c>
       <c r="F213" s="3" t="str">
         <f>VLOOKUP(C213,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.15">
@@ -5475,17 +5510,17 @@
         <v>160</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D214" s="1">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="E214" s="3">
         <v>2</v>
       </c>
       <c r="F214" s="3" t="str">
         <f>VLOOKUP(C214,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.15">
@@ -5496,17 +5531,17 @@
         <v>160</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="D215" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E215" s="3">
         <v>2</v>
       </c>
       <c r="F215" s="3" t="str">
         <f>VLOOKUP(C215,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.15">
@@ -5517,17 +5552,17 @@
         <v>160</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="D216" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E216" s="3">
         <v>2</v>
       </c>
       <c r="F216" s="3" t="str">
         <f>VLOOKUP(C216,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.15">
@@ -5538,10 +5573,10 @@
         <v>160</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D217" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E217" s="3">
         <v>2</v>
@@ -5559,7 +5594,7 @@
         <v>160</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D218" s="1">
         <v>1</v>
@@ -5569,7 +5604,7 @@
       </c>
       <c r="F218" s="3" t="str">
         <f>VLOOKUP(C218,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.15">
@@ -5580,7 +5615,7 @@
         <v>160</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="D219" s="1">
         <v>1</v>
@@ -5601,7 +5636,7 @@
         <v>160</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D220" s="1">
         <v>1</v>
@@ -5622,7 +5657,7 @@
         <v>160</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="D221" s="1">
         <v>1</v>
@@ -5643,7 +5678,7 @@
         <v>160</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="D222" s="1">
         <v>1</v>
@@ -5653,7 +5688,7 @@
       </c>
       <c r="F222" s="3" t="str">
         <f>VLOOKUP(C222,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Bread</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.15">
@@ -5664,7 +5699,7 @@
         <v>160</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="D223" s="1">
         <v>1</v>
@@ -5674,7 +5709,7 @@
       </c>
       <c r="F223" s="3" t="str">
         <f>VLOOKUP(C223,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Bread</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.15">
@@ -5685,7 +5720,7 @@
         <v>160</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="D224" s="1">
         <v>1</v>
@@ -5695,28 +5730,28 @@
       </c>
       <c r="F224" s="3" t="str">
         <f>VLOOKUP(C224,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="D225" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E225" s="3">
         <v>2</v>
       </c>
       <c r="F225" s="3" t="str">
         <f>VLOOKUP(C225,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.15">
@@ -5727,17 +5762,17 @@
         <v>167</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D226" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E226" s="3">
         <v>2</v>
       </c>
       <c r="F226" s="3" t="str">
         <f>VLOOKUP(C226,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.15">
@@ -5748,7 +5783,7 @@
         <v>167</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D227" s="1">
         <v>1</v>
@@ -5758,7 +5793,7 @@
       </c>
       <c r="F227" s="3" t="str">
         <f>VLOOKUP(C227,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Pasta</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.15">
@@ -5769,7 +5804,7 @@
         <v>167</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D228" s="1">
         <v>1</v>
@@ -5779,7 +5814,7 @@
       </c>
       <c r="F228" s="3" t="str">
         <f>VLOOKUP(C228,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Pasta</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.15">
@@ -5790,7 +5825,7 @@
         <v>167</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="D229" s="1">
         <v>1</v>
@@ -5800,7 +5835,7 @@
       </c>
       <c r="F229" s="3" t="str">
         <f>VLOOKUP(C229,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.15">
@@ -5811,7 +5846,7 @@
         <v>167</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="D230" s="1">
         <v>1</v>
@@ -5821,7 +5856,7 @@
       </c>
       <c r="F230" s="3" t="str">
         <f>VLOOKUP(C230,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.15">
@@ -5832,7 +5867,7 @@
         <v>167</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="D231" s="1">
         <v>1</v>
@@ -5853,7 +5888,7 @@
         <v>167</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="D232" s="1">
         <v>1</v>
@@ -5874,7 +5909,7 @@
         <v>167</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="D233" s="1">
         <v>1</v>
@@ -5895,7 +5930,7 @@
         <v>167</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D234" s="1">
         <v>1</v>
@@ -5905,18 +5940,18 @@
       </c>
       <c r="F234" s="3" t="str">
         <f>VLOOKUP(C234,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="D235" s="1">
         <v>1</v>
@@ -5926,7 +5961,7 @@
       </c>
       <c r="F235" s="3" t="str">
         <f>VLOOKUP(C235,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Bread</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.15">
@@ -5937,17 +5972,17 @@
         <v>175</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="D236" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E236" s="3">
         <v>2</v>
       </c>
       <c r="F236" s="3" t="str">
         <f>VLOOKUP(C236,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Frozen</v>
+        <v>Bread</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.15">
@@ -5958,38 +5993,38 @@
         <v>175</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="D237" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E237" s="3">
         <v>2</v>
       </c>
       <c r="F237" s="3" t="str">
         <f>VLOOKUP(C237,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Frozen</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="D238" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E238" s="3">
         <v>2</v>
       </c>
       <c r="F238" s="3" t="str">
         <f>VLOOKUP(C238,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.15">
@@ -6000,17 +6035,17 @@
         <v>177</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="D239" s="1">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="E239" s="3">
         <v>2</v>
       </c>
       <c r="F239" s="3" t="str">
         <f>VLOOKUP(C239,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.15">
@@ -6021,17 +6056,17 @@
         <v>177</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D240" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E240" s="3">
         <v>2</v>
       </c>
       <c r="F240" s="3" t="str">
         <f>VLOOKUP(C240,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.15">
@@ -6042,17 +6077,17 @@
         <v>177</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="D241" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E241" s="3">
         <v>2</v>
       </c>
       <c r="F241" s="3" t="str">
         <f>VLOOKUP(C241,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.15">
@@ -6063,7 +6098,7 @@
         <v>177</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="D242" s="1">
         <v>0.1</v>
@@ -6073,7 +6108,7 @@
       </c>
       <c r="F242" s="3" t="str">
         <f>VLOOKUP(C242,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.15">
@@ -6084,7 +6119,7 @@
         <v>177</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="D243" s="1">
         <v>0.1</v>
@@ -6094,7 +6129,7 @@
       </c>
       <c r="F243" s="3" t="str">
         <f>VLOOKUP(C243,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.15">
@@ -6105,10 +6140,10 @@
         <v>177</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D244" s="1">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="E244" s="3">
         <v>2</v>
@@ -6120,23 +6155,23 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="D245" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E245" s="3">
         <v>2</v>
       </c>
       <c r="F245" s="3" t="str">
         <f>VLOOKUP(C245,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.15">
@@ -6147,17 +6182,17 @@
         <v>180</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="D246" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E246" s="3">
         <v>2</v>
       </c>
       <c r="F246" s="3" t="str">
         <f>VLOOKUP(C246,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.15">
@@ -6168,17 +6203,17 @@
         <v>180</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="D247" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E247" s="3">
         <v>2</v>
       </c>
       <c r="F247" s="3" t="str">
         <f>VLOOKUP(C247,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.15">
@@ -6189,17 +6224,17 @@
         <v>180</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>181</v>
+        <v>98</v>
       </c>
       <c r="D248" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E248" s="3">
         <v>2</v>
       </c>
       <c r="F248" s="3" t="str">
         <f>VLOOKUP(C248,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.15">
@@ -6210,7 +6245,7 @@
         <v>180</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="D249" s="1">
         <v>0.1</v>
@@ -6231,17 +6266,17 @@
         <v>180</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="D250" s="1">
-        <v>250</v>
+        <v>0.1</v>
       </c>
       <c r="E250" s="3">
         <v>2</v>
       </c>
       <c r="F250" s="3" t="str">
         <f>VLOOKUP(C250,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Meat</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.15">
@@ -6252,17 +6287,17 @@
         <v>180</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="D251" s="1">
-        <v>0.1</v>
+        <v>250</v>
       </c>
       <c r="E251" s="3">
         <v>2</v>
       </c>
       <c r="F251" s="3" t="str">
         <f>VLOOKUP(C251,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Meat</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.15">
@@ -6273,7 +6308,7 @@
         <v>180</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="D252" s="1">
         <v>0.1</v>
@@ -6294,17 +6329,17 @@
         <v>180</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="D253" s="1">
-        <v>6</v>
+        <v>0.1</v>
       </c>
       <c r="E253" s="3">
         <v>2</v>
       </c>
       <c r="F253" s="3" t="str">
         <f>VLOOKUP(C253,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Bread</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.15">
@@ -6315,38 +6350,38 @@
         <v>180</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="D254" s="1">
-        <v>0.1</v>
+        <v>6</v>
       </c>
       <c r="E254" s="3">
         <v>2</v>
       </c>
       <c r="F254" s="3" t="str">
         <f>VLOOKUP(C254,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Bread</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>185</v>
+        <v>59</v>
       </c>
       <c r="D255" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E255" s="3">
         <v>2</v>
       </c>
       <c r="F255" s="3" t="str">
         <f>VLOOKUP(C255,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.15">
@@ -6357,7 +6392,7 @@
         <v>184</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="D256" s="1">
         <v>1</v>
@@ -6378,17 +6413,17 @@
         <v>184</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="D257" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E257" s="3">
         <v>2</v>
       </c>
       <c r="F257" s="3" t="str">
         <f>VLOOKUP(C257,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.15">
@@ -6399,7 +6434,7 @@
         <v>184</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="D258" s="1">
         <v>0.1</v>
@@ -6420,17 +6455,17 @@
         <v>184</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>186</v>
+        <v>120</v>
       </c>
       <c r="D259" s="1">
-        <v>250</v>
+        <v>0.1</v>
       </c>
       <c r="E259" s="3">
         <v>2</v>
       </c>
       <c r="F259" s="3" t="str">
         <f>VLOOKUP(C259,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Pasta</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.15">
@@ -6441,17 +6476,17 @@
         <v>184</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="D260" s="1">
-        <v>0.1</v>
+        <v>250</v>
       </c>
       <c r="E260" s="3">
         <v>2</v>
       </c>
       <c r="F260" s="3" t="str">
         <f>VLOOKUP(C260,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Pasta</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.15">
@@ -6462,10 +6497,10 @@
         <v>184</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="D261" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E261" s="3">
         <v>2</v>
@@ -6483,17 +6518,17 @@
         <v>184</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>187</v>
+        <v>92</v>
       </c>
       <c r="D262" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E262" s="3">
         <v>2</v>
       </c>
       <c r="F262" s="3" t="str">
         <f>VLOOKUP(C262,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.15">
@@ -6504,17 +6539,17 @@
         <v>184</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="D263" s="1">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="E263" s="3">
         <v>2</v>
       </c>
       <c r="F263" s="3" t="str">
         <f>VLOOKUP(C263,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.15">
@@ -6525,38 +6560,38 @@
         <v>184</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="D264" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E264" s="3">
         <v>2</v>
       </c>
       <c r="F264" s="3" t="str">
         <f>VLOOKUP(C264,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Dairy</v>
+        <v>Condiment</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A265" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="D265" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E265" s="3">
         <v>2</v>
       </c>
       <c r="F265" s="3" t="str">
         <f>VLOOKUP(C265,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Bread</v>
+        <v>Dairy</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.15">
@@ -6567,17 +6602,17 @@
         <v>188</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="D266" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E266" s="3">
         <v>2</v>
       </c>
       <c r="F266" s="3" t="str">
         <f>VLOOKUP(C266,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Veg</v>
+        <v>Bread</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.15">
@@ -6588,10 +6623,10 @@
         <v>188</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="D267" s="1">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E267" s="3">
         <v>2</v>
@@ -6609,10 +6644,10 @@
         <v>188</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="D268" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E268" s="3">
         <v>2</v>
@@ -6630,17 +6665,17 @@
         <v>188</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>164</v>
+        <v>7</v>
       </c>
       <c r="D269" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E269" s="3">
         <v>2</v>
       </c>
       <c r="F269" s="3" t="str">
         <f>VLOOKUP(C269,FG_LookUp!$A$2:$B$1048576,2,0)</f>
-        <v>Condiment</v>
+        <v>Veg</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.15">
@@ -6651,7 +6686,7 @@
         <v>188</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="D270" s="1">
         <v>0.1</v>
@@ -6662,6 +6697,783 @@
       <c r="F270" s="3" t="str">
         <f>VLOOKUP(C270,FG_LookUp!$A$2:$B$1048576,2,0)</f>
         <v>Condiment</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A271" s="1">
+        <v>33</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D271" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E271" s="3">
+        <v>2</v>
+      </c>
+      <c r="F271" s="3" t="str">
+        <f>VLOOKUP(C271,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A272" s="1">
+        <v>34</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D272" s="1">
+        <v>2</v>
+      </c>
+      <c r="E272" s="3">
+        <v>2</v>
+      </c>
+      <c r="F272" s="3" t="str">
+        <f>VLOOKUP(C272,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A273" s="1">
+        <v>34</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D273" s="1">
+        <v>1</v>
+      </c>
+      <c r="E273" s="3">
+        <v>2</v>
+      </c>
+      <c r="F273" s="3" t="str">
+        <f>VLOOKUP(C273,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A274" s="1">
+        <v>34</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D274" s="1">
+        <v>1</v>
+      </c>
+      <c r="E274" s="3">
+        <v>2</v>
+      </c>
+      <c r="F274" s="3" t="str">
+        <f>VLOOKUP(C274,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Bread</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A275" s="1">
+        <v>34</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D275" s="1">
+        <v>1</v>
+      </c>
+      <c r="E275" s="3">
+        <v>2</v>
+      </c>
+      <c r="F275" s="3" t="str">
+        <f>VLOOKUP(C275,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A276" s="1">
+        <v>34</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D276" s="1">
+        <v>1</v>
+      </c>
+      <c r="E276" s="3">
+        <v>2</v>
+      </c>
+      <c r="F276" s="3" t="str">
+        <f>VLOOKUP(C276,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A277" s="1">
+        <v>34</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D277" s="1">
+        <v>1</v>
+      </c>
+      <c r="E277" s="3">
+        <v>2</v>
+      </c>
+      <c r="F277" s="3" t="str">
+        <f>VLOOKUP(C277,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A278" s="1">
+        <v>34</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D278" s="1">
+        <v>1</v>
+      </c>
+      <c r="E278" s="3">
+        <v>2</v>
+      </c>
+      <c r="F278" s="3" t="str">
+        <f>VLOOKUP(C278,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A279" s="1">
+        <v>35</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D279" s="1">
+        <v>1</v>
+      </c>
+      <c r="E279" s="3">
+        <v>4</v>
+      </c>
+      <c r="F279" s="3" t="str">
+        <f>VLOOKUP(C279,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Pasta</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A280" s="1">
+        <v>35</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D280" s="1">
+        <v>1</v>
+      </c>
+      <c r="E280" s="3">
+        <v>4</v>
+      </c>
+      <c r="F280" s="3" t="str">
+        <f>VLOOKUP(C280,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A281" s="1">
+        <v>35</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D281" s="1">
+        <v>1</v>
+      </c>
+      <c r="E281" s="3">
+        <v>4</v>
+      </c>
+      <c r="F281" s="3" t="str">
+        <f>VLOOKUP(C281,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A282" s="1">
+        <v>35</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D282" s="1">
+        <v>1</v>
+      </c>
+      <c r="E282" s="3">
+        <v>4</v>
+      </c>
+      <c r="F282" s="3" t="str">
+        <f>VLOOKUP(C282,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A283" s="1">
+        <v>35</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D283" s="1">
+        <v>1</v>
+      </c>
+      <c r="E283" s="3">
+        <v>4</v>
+      </c>
+      <c r="F283" s="3" t="str">
+        <f>VLOOKUP(C283,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A284" s="1">
+        <v>35</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D284" s="1">
+        <v>1</v>
+      </c>
+      <c r="E284" s="3">
+        <v>4</v>
+      </c>
+      <c r="F284" s="3" t="str">
+        <f>VLOOKUP(C284,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A285" s="1">
+        <v>35</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D285" s="1">
+        <v>1</v>
+      </c>
+      <c r="E285" s="3">
+        <v>4</v>
+      </c>
+      <c r="F285" s="3" t="str">
+        <f>VLOOKUP(C285,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A286" s="1">
+        <v>35</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D286" s="1">
+        <v>1</v>
+      </c>
+      <c r="E286" s="3">
+        <v>4</v>
+      </c>
+      <c r="F286" s="3" t="str">
+        <f>VLOOKUP(C286,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A287" s="1">
+        <v>35</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D287" s="1">
+        <v>2</v>
+      </c>
+      <c r="E287" s="3">
+        <v>4</v>
+      </c>
+      <c r="F287" s="3" t="str">
+        <f>VLOOKUP(C287,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A288" s="1">
+        <v>35</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D288" s="1">
+        <v>4</v>
+      </c>
+      <c r="E288" s="3">
+        <v>4</v>
+      </c>
+      <c r="F288" s="3" t="str">
+        <f>VLOOKUP(C288,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A289" s="1">
+        <v>36</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D289" s="1">
+        <v>1</v>
+      </c>
+      <c r="E289" s="3">
+        <v>2</v>
+      </c>
+      <c r="F289" s="3" t="str">
+        <f>VLOOKUP(C289,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Meat</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A290" s="1">
+        <v>36</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D290" s="1">
+        <v>2</v>
+      </c>
+      <c r="E290" s="3">
+        <v>2</v>
+      </c>
+      <c r="F290" s="3" t="str">
+        <f>VLOOKUP(C290,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Pasta</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A291" s="1">
+        <v>36</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D291" s="1">
+        <v>1</v>
+      </c>
+      <c r="E291" s="3">
+        <v>2</v>
+      </c>
+      <c r="F291" s="3" t="str">
+        <f>VLOOKUP(C291,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A292" s="1">
+        <v>36</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D292" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E292" s="3">
+        <v>2</v>
+      </c>
+      <c r="F292" s="3" t="str">
+        <f>VLOOKUP(C292,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A293" s="1">
+        <v>36</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D293" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E293" s="3">
+        <v>2</v>
+      </c>
+      <c r="F293" s="3" t="str">
+        <f>VLOOKUP(C293,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A294" s="1">
+        <v>36</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D294" s="1">
+        <v>1</v>
+      </c>
+      <c r="E294" s="3">
+        <v>2</v>
+      </c>
+      <c r="F294" s="3" t="str">
+        <f>VLOOKUP(C294,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A295" s="1">
+        <v>36</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D295" s="1">
+        <v>1</v>
+      </c>
+      <c r="E295" s="3">
+        <v>2</v>
+      </c>
+      <c r="F295" s="3" t="str">
+        <f>VLOOKUP(C295,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A296" s="1">
+        <v>36</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D296" s="1">
+        <v>1</v>
+      </c>
+      <c r="E296" s="3">
+        <v>2</v>
+      </c>
+      <c r="F296" s="3" t="str">
+        <f>VLOOKUP(C296,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A297" s="1">
+        <v>36</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D297" s="1">
+        <v>1</v>
+      </c>
+      <c r="E297" s="3">
+        <v>2</v>
+      </c>
+      <c r="F297" s="3" t="str">
+        <f>VLOOKUP(C297,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Condiment</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A298" s="1">
+        <v>36</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D298" s="1">
+        <v>1</v>
+      </c>
+      <c r="E298" s="3">
+        <v>2</v>
+      </c>
+      <c r="F298" s="3" t="str">
+        <f>VLOOKUP(C298,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A299" s="1">
+        <v>37</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D299" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E299" s="3">
+        <v>2</v>
+      </c>
+      <c r="F299" s="3" t="str">
+        <f>VLOOKUP(C299,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A300" s="1">
+        <v>37</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D300" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E300" s="3">
+        <v>2</v>
+      </c>
+      <c r="F300" s="3" t="str">
+        <f>VLOOKUP(C300,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A301" s="1">
+        <v>37</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D301" s="1">
+        <v>1</v>
+      </c>
+      <c r="E301" s="3">
+        <v>2</v>
+      </c>
+      <c r="F301" s="3" t="str">
+        <f>VLOOKUP(C301,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A302" s="1">
+        <v>37</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D302" s="1">
+        <v>1</v>
+      </c>
+      <c r="E302" s="3">
+        <v>2</v>
+      </c>
+      <c r="F302" s="3" t="str">
+        <f>VLOOKUP(C302,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A303" s="1">
+        <v>37</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D303" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E303" s="3">
+        <v>2</v>
+      </c>
+      <c r="F303" s="3" t="str">
+        <f>VLOOKUP(C303,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Pasta</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A304" s="1">
+        <v>37</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D304" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E304" s="3">
+        <v>2</v>
+      </c>
+      <c r="F304" s="3" t="str">
+        <f>VLOOKUP(C304,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A305" s="1">
+        <v>37</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D305" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E305" s="3">
+        <v>2</v>
+      </c>
+      <c r="F305" s="3" t="str">
+        <f>VLOOKUP(C305,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Dairy</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A306" s="1">
+        <v>37</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D306" s="1">
+        <v>1</v>
+      </c>
+      <c r="E306" s="3">
+        <v>2</v>
+      </c>
+      <c r="F306" s="3" t="str">
+        <f>VLOOKUP(C306,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Veg</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A307" s="1">
+        <v>37</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D307" s="1">
+        <v>2</v>
+      </c>
+      <c r="E307" s="3">
+        <v>2</v>
+      </c>
+      <c r="F307" s="3" t="str">
+        <f>VLOOKUP(C307,FG_LookUp!$A$2:$B$1048576,2,0)</f>
+        <v>Meat</v>
       </c>
     </row>
   </sheetData>
@@ -6672,11 +7484,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39DC5D3-48DD-4434-AD5F-B09C98CDDF7C}">
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:C148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A141" sqref="A141"/>
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C145" sqref="C145:C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -8241,7 +9053,7 @@
         <v>22</v>
       </c>
       <c r="C130" s="1">
-        <f t="shared" ref="C130:C142" si="4">COUNTIF($A$2:$A$1048576,A130)</f>
+        <f t="shared" ref="C130:C143" si="4">COUNTIF($A$2:$A$1048576,A130)</f>
         <v>1</v>
       </c>
     </row>
@@ -8386,6 +9198,78 @@
       </c>
       <c r="C142" s="1">
         <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A143" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C143" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A144" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144" s="1">
+        <f t="shared" ref="C144:C148" si="5">COUNTIF($A$2:$A$1048576,A144)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A145" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C145" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A146" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C146" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A147" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C147" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A148" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C148" s="1">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
